--- a/downloads/expage.xlsx
+++ b/downloads/expage.xlsx
@@ -532,22 +532,19 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>5413146</v>
+        <v>5414870</v>
       </c>
       <c r="D2" s="1">
-        <v>46058.521257291664</v>
+        <v>46065.33774596065</v>
       </c>
       <c r="E2" s="1">
-        <v>46058.760416666664</v>
+        <v>46065.583333333336</v>
       </c>
       <c r="F2" t="str">
-        <v>Express</v>
+        <v>Sdd</v>
       </c>
       <c r="G2" t="str">
-        <v>In route</v>
-      </c>
-      <c r="H2" s="1">
-        <v>46058.52126677083</v>
+        <v>Created</v>
       </c>
       <c r="K2" t="str">
         <v>ORN1</v>
@@ -556,99 +553,81 @@
         <v>2</v>
       </c>
       <c r="N2" t="str">
-        <v>הכשרת היישוב 23, ראשון לציון, ישראל</v>
+        <v>משה לוי 10, ראשון לציון, ישראל</v>
       </c>
       <c r="O2" t="str">
         <v>ראשון לציון</v>
       </c>
       <c r="P2" t="str">
-        <v>18:15</v>
+        <v>14:00</v>
       </c>
       <c r="Q2" t="str">
-        <v>18:15-19:04</v>
+        <v>14:00-18:00</v>
       </c>
       <c r="R2" t="str">
-        <v>ויוי</v>
+        <v>KSP</v>
       </c>
       <c r="S2" t="str">
-        <v>0526555555</v>
+        <v>0504292643</v>
       </c>
       <c r="T2" t="str">
-        <v>האתרוג 56, שוהם, 6082299, ישראל</v>
+        <v>מבצע חירם 5 ראשון לציון ראשון לציון ישראל</v>
       </c>
       <c r="U2" t="str">
-        <v>שהם</v>
+        <v>ראשון לציון</v>
       </c>
       <c r="V2" t="str">
-        <v>18:15</v>
+        <v>14:00</v>
       </c>
       <c r="W2" t="str">
-        <v>18:15-19:04</v>
+        <v>14:00-18:00</v>
       </c>
       <c r="X2" t="str">
-        <v>ויולט</v>
+        <v>אליאור לוי</v>
       </c>
       <c r="Y2" t="str">
-        <v>0526536998</v>
+        <v>0502282998</v>
       </c>
       <c r="AA2" t="str">
-        <v>הערות למסירה</v>
-      </c>
-      <c r="AB2">
-        <v>716386</v>
+        <v>Pack ID: 21046595</v>
       </c>
       <c r="AC2" t="str">
-        <v>264-55</v>
+        <v>VP3 VD2 2974810</v>
       </c>
       <c r="AD2" t="str">
-        <v>Medium</v>
+        <v>Envelope</v>
       </c>
       <c r="AE2" t="str">
-        <v>Test LTD</v>
+        <v>Autotest</v>
       </c>
       <c r="AF2" t="str">
-        <v>AddPhotoBusiness BusinessAutotest</v>
+        <v>APITesting AutomationAPI</v>
       </c>
       <c r="AG2" t="str">
-        <v>0534489372</v>
+        <v>0506664422</v>
       </c>
       <c r="AH2" t="str">
-        <v>AddPhotoBusiness BusinessAutotest</v>
+        <v>APITesting AutomationAPI</v>
       </c>
       <c r="AI2" t="str">
-        <v>0534489372</v>
-      </c>
-      <c r="AL2">
-        <v>1013193</v>
-      </c>
-      <c r="AM2" t="str">
-        <v>1</v>
-      </c>
-      <c r="AN2" t="str">
-        <v>1</v>
-      </c>
-      <c r="AQ2" s="1">
-        <v>46058.52126677083</v>
+        <v>0506664422</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>5413145</v>
+        <v>5414869</v>
       </c>
       <c r="D3" s="1">
-        <v>46058.46907009259</v>
+        <v>46065.33773564815</v>
       </c>
       <c r="E3" s="1">
-        <v>46058.760416666664</v>
+        <v>46065.583333333336</v>
       </c>
       <c r="F3" t="str">
-        <v>Express</v>
+        <v>Sdd</v>
       </c>
       <c r="G3" t="str">
-        <v>In route</v>
-      </c>
-      <c r="H3" s="1">
-        <v>46058.469073796296</v>
+        <v>Created</v>
       </c>
       <c r="K3" t="str">
         <v>ORN1</v>
@@ -657,99 +636,81 @@
         <v>2</v>
       </c>
       <c r="N3" t="str">
-        <v>הכשרת היישוב 23, ראשון לציון, ישראל</v>
+        <v>אייבורי סניף ראשי -מחסן ראשי, הסיבים, פתח תקווה, ישראל</v>
       </c>
       <c r="O3" t="str">
-        <v>ראשון לציון</v>
+        <v>פתח תקווה</v>
       </c>
       <c r="P3" t="str">
-        <v>18:15</v>
+        <v>14:00</v>
       </c>
       <c r="Q3" t="str">
-        <v>18:15-19:08</v>
+        <v>14:00-18:00</v>
       </c>
       <c r="R3" t="str">
-        <v>ויוי</v>
+        <v>אייבורי מחשבים בע"מ</v>
       </c>
       <c r="S3" t="str">
-        <v>0526555555</v>
+        <v>0504214878</v>
       </c>
       <c r="T3" t="str">
-        <v>האתרוג 56, שוהם, ישראל</v>
+        <v>משה דיין 4, כפר סבא, ישראל</v>
       </c>
       <c r="U3" t="str">
-        <v>שוהם</v>
+        <v>כפר סבא</v>
       </c>
       <c r="V3" t="str">
-        <v>18:15</v>
+        <v>14:00</v>
       </c>
       <c r="W3" t="str">
-        <v>18:15-19:08</v>
+        <v>14:00-18:00</v>
       </c>
       <c r="X3" t="str">
-        <v>ויולט</v>
+        <v>שירי ארד</v>
       </c>
       <c r="Y3" t="str">
-        <v>0526536998</v>
+        <v>0545840890</v>
       </c>
       <c r="AA3" t="str">
-        <v>הערות למסירה</v>
-      </c>
-      <c r="AB3">
-        <v>716385</v>
+        <v>Pack ID: D724025292</v>
       </c>
       <c r="AC3" t="str">
-        <v>745-55</v>
+        <v>VP3 VD2 4334743</v>
       </c>
       <c r="AD3" t="str">
         <v>Medium</v>
       </c>
       <c r="AE3" t="str">
-        <v>Test LTD</v>
+        <v>Autotest</v>
       </c>
       <c r="AF3" t="str">
-        <v>AddPhotoBusiness BusinessAutotest</v>
+        <v>APITesting AutomationAPI</v>
       </c>
       <c r="AG3" t="str">
-        <v>0534489372</v>
+        <v>0506664422</v>
       </c>
       <c r="AH3" t="str">
-        <v>AddPhotoBusiness BusinessAutotest</v>
+        <v>APITesting AutomationAPI</v>
       </c>
       <c r="AI3" t="str">
-        <v>0534489372</v>
-      </c>
-      <c r="AL3">
-        <v>1013193</v>
-      </c>
-      <c r="AM3" t="str">
-        <v>1</v>
-      </c>
-      <c r="AN3" t="str">
-        <v>1</v>
-      </c>
-      <c r="AQ3" s="1">
-        <v>46058.469073796296</v>
+        <v>0506664422</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>5413144</v>
+        <v>5414868</v>
       </c>
       <c r="D4" s="1">
-        <v>46058.468191747685</v>
+        <v>46065.337721909724</v>
       </c>
       <c r="E4" s="1">
-        <v>46058.760416666664</v>
+        <v>46065.583333333336</v>
       </c>
       <c r="F4" t="str">
-        <v>Express</v>
+        <v>Sdd</v>
       </c>
       <c r="G4" t="str">
-        <v>In route</v>
-      </c>
-      <c r="H4" s="1">
-        <v>46058.468198807874</v>
+        <v>Created</v>
       </c>
       <c r="K4" t="str">
         <v>ORN1</v>
@@ -758,153 +719,132 @@
         <v>2</v>
       </c>
       <c r="N4" t="str">
-        <v>הכשרת היישוב 23, ראשון לציון, ישראל</v>
+        <v>משה לוי 10, ראשון לציון, ישראל</v>
       </c>
       <c r="O4" t="str">
         <v>ראשון לציון</v>
       </c>
       <c r="P4" t="str">
-        <v>18:15</v>
+        <v>14:00</v>
       </c>
       <c r="Q4" t="str">
-        <v>18:15-19:08</v>
+        <v>14:00-18:00</v>
       </c>
       <c r="R4" t="str">
-        <v>ויוי</v>
+        <v>KSP</v>
       </c>
       <c r="S4" t="str">
-        <v>0526555555</v>
+        <v>0504709178</v>
       </c>
       <c r="T4" t="str">
-        <v>האתרוג 1, שוהם, ישראל</v>
+        <v>קישון אפרים 16 באר יעקב באר יעקב ישראל</v>
       </c>
       <c r="U4" t="str">
-        <v>שוהם</v>
+        <v>באר יעקב</v>
       </c>
       <c r="V4" t="str">
-        <v>18:15</v>
+        <v>14:00</v>
       </c>
       <c r="W4" t="str">
-        <v>18:15-19:08</v>
+        <v>14:00-18:00</v>
       </c>
       <c r="X4" t="str">
-        <v>ויולט</v>
+        <v>שיר ארזואן</v>
       </c>
       <c r="Y4" t="str">
-        <v>0526536998</v>
+        <v>0528846812</v>
       </c>
       <c r="AA4" t="str">
-        <v>הערות למסירה</v>
-      </c>
-      <c r="AB4">
-        <v>716384</v>
+        <v>Pack ID: 21082738</v>
       </c>
       <c r="AC4" t="str">
-        <v>478-55</v>
+        <v>VP3 VD2 9764817</v>
       </c>
       <c r="AD4" t="str">
-        <v>Medium</v>
+        <v>Small</v>
       </c>
       <c r="AE4" t="str">
-        <v>Test LTD</v>
+        <v>Autotest</v>
       </c>
       <c r="AF4" t="str">
-        <v>AddPhotoBusiness BusinessAutotest</v>
+        <v>APITesting AutomationAPI</v>
       </c>
       <c r="AG4" t="str">
-        <v>0534489372</v>
+        <v>0506664422</v>
       </c>
       <c r="AH4" t="str">
-        <v>AddPhotoBusiness BusinessAutotest</v>
+        <v>APITesting AutomationAPI</v>
       </c>
       <c r="AI4" t="str">
-        <v>0534489372</v>
-      </c>
-      <c r="AL4">
-        <v>1013193</v>
-      </c>
-      <c r="AM4" t="str">
-        <v>1</v>
-      </c>
-      <c r="AN4" t="str">
-        <v>1</v>
-      </c>
-      <c r="AQ4" s="1">
-        <v>46058.468198807874</v>
+        <v>0506664422</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>5413141</v>
+        <v>5414867</v>
       </c>
       <c r="D5" s="1">
-        <v>46057.841968402776</v>
+        <v>46065.33771099537</v>
       </c>
       <c r="E5" s="1">
-        <v>46058.4375</v>
+        <v>46065.583333333336</v>
       </c>
       <c r="F5" t="str">
         <v>Sdd</v>
       </c>
       <c r="G5" t="str">
-        <v>In route</v>
-      </c>
-      <c r="H5" s="1">
-        <v>46058.60768818287</v>
+        <v>Created</v>
       </c>
       <c r="K5" t="str">
         <v>ORN1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N5" t="str">
-        <v xml:space="preserve"> סניף תל אביב המסגר, המסגר 53, תל אביב יפו, 6721706, ישראל</v>
+        <v>הסיבים 18, פתח תקווה, ישראל</v>
       </c>
       <c r="O5" t="str">
+        <v>פתח תקווה</v>
+      </c>
+      <c r="P5" t="str">
+        <v>14:00</v>
+      </c>
+      <c r="Q5" t="str">
+        <v>14:00-18:00</v>
+      </c>
+      <c r="R5" t="str">
+        <v>אייבורי מחשבים בע"מ</v>
+      </c>
+      <c r="S5" t="str">
+        <v>0504652710</v>
+      </c>
+      <c r="T5" t="str">
+        <v>דרך מנחם בגין 27, תל אביב-יפו, ישראל</v>
+      </c>
+      <c r="U5" t="str">
         <v>תל אביב-יפו</v>
       </c>
-      <c r="P5" t="str">
-        <v>10:30</v>
-      </c>
-      <c r="Q5" t="str">
-        <v>10:30-16:00</v>
-      </c>
-      <c r="R5" t="str">
-        <v>KSP</v>
-      </c>
-      <c r="S5" t="str">
-        <v>0504460994</v>
-      </c>
-      <c r="T5" t="str">
-        <v>בן גוריון 45 פתח תקווה פתח תקווה ישראל</v>
-      </c>
-      <c r="U5" t="str">
-        <v>פתח תקווה</v>
-      </c>
       <c r="V5" t="str">
-        <v>10:30</v>
+        <v>14:00</v>
       </c>
       <c r="W5" t="str">
-        <v>10:30-16:00</v>
+        <v>14:00-18:00</v>
       </c>
       <c r="X5" t="str">
-        <v>אייל קרוק</v>
+        <v>וקס עדי</v>
       </c>
       <c r="Y5" t="str">
-        <v>0527907619</v>
+        <v>0522877966</v>
       </c>
       <c r="AA5" t="str">
-        <v>Pack ID: 21087621</v>
-      </c>
-      <c r="AB5">
-        <v>716682</v>
+        <v>Pack ID: D724026369</v>
       </c>
       <c r="AC5" t="str">
-        <v>VP3 VD2 6290549</v>
+        <v>VP3 VD2 6867689</v>
       </c>
       <c r="AD5" t="str">
-        <v>Envelope</v>
+        <v>Small</v>
       </c>
       <c r="AE5" t="str">
         <v>Autotest</v>
@@ -920,86 +860,74 @@
       </c>
       <c r="AI5" t="str">
         <v>0506664422</v>
-      </c>
-      <c r="AP5" t="str">
-        <v>rescheduled,e2m,try1</v>
-      </c>
-      <c r="AQ5" s="1">
-        <v>46058.60768818287</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>5413140</v>
+        <v>5414866</v>
       </c>
       <c r="D6" s="1">
-        <v>46057.841961527774</v>
+        <v>46065.33769925926</v>
       </c>
       <c r="E6" s="1">
-        <v>46058.4375</v>
+        <v>46065.583333333336</v>
       </c>
       <c r="F6" t="str">
         <v>Sdd</v>
       </c>
       <c r="G6" t="str">
-        <v>In route</v>
-      </c>
-      <c r="H6" s="1">
-        <v>46058.60768237268</v>
+        <v>Created</v>
       </c>
       <c r="K6" t="str">
         <v>ORN1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N6" t="str">
-        <v xml:space="preserve"> סניף ת"א החשמונאים, החשמונאים 88, תל אביב-יפו, ישראל</v>
+        <v>הסיבים 18, פתח תקווה, ישראל</v>
       </c>
       <c r="O6" t="str">
-        <v>תל אביב-יפו</v>
+        <v>פתח תקווה</v>
       </c>
       <c r="P6" t="str">
-        <v>10:30</v>
+        <v>14:00</v>
       </c>
       <c r="Q6" t="str">
-        <v>10:30-16:00</v>
+        <v>14:00-18:00</v>
       </c>
       <c r="R6" t="str">
-        <v>KSP</v>
+        <v>אייבורי מחשבים בע"מ</v>
       </c>
       <c r="S6" t="str">
-        <v>0504150646</v>
+        <v>0504371778</v>
       </c>
       <c r="T6" t="str">
-        <v>אבן גבירול 188 תל אביב - יפו תל אביב - יפו ישראל</v>
+        <v>קיבוץ גלויות 7, כפר סבא, ישראל</v>
       </c>
       <c r="U6" t="str">
-        <v>תל אביב-יפו</v>
+        <v>כפר סבא</v>
       </c>
       <c r="V6" t="str">
-        <v>10:30</v>
+        <v>14:00</v>
       </c>
       <c r="W6" t="str">
-        <v>10:30-16:00</v>
+        <v>14:00-18:00</v>
       </c>
       <c r="X6" t="str">
-        <v>Daniel De mayo</v>
+        <v>עדני אופיר</v>
       </c>
       <c r="Y6" t="str">
-        <v>0544218701</v>
+        <v>0549760104</v>
       </c>
       <c r="AA6" t="str">
-        <v>Pack ID: 21079996</v>
-      </c>
-      <c r="AB6">
-        <v>716679</v>
+        <v>Pack ID: D724026883</v>
       </c>
       <c r="AC6" t="str">
-        <v>VP3 VD2 5581073</v>
+        <v>VP3 VD2 7188079</v>
       </c>
       <c r="AD6" t="str">
-        <v>Small</v>
+        <v>Medium</v>
       </c>
       <c r="AE6" t="str">
         <v>Autotest</v>
@@ -1015,86 +943,74 @@
       </c>
       <c r="AI6" t="str">
         <v>0506664422</v>
-      </c>
-      <c r="AP6" t="str">
-        <v>rescheduled,e2m,try1</v>
-      </c>
-      <c r="AQ6" s="1">
-        <v>46058.60768237268</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>5413139</v>
+        <v>5414865</v>
       </c>
       <c r="D7" s="1">
-        <v>46057.84195486111</v>
+        <v>46065.33768855324</v>
       </c>
       <c r="E7" s="1">
-        <v>46058.4375</v>
+        <v>46065.583333333336</v>
       </c>
       <c r="F7" t="str">
         <v>Sdd</v>
       </c>
       <c r="G7" t="str">
-        <v>In route</v>
-      </c>
-      <c r="H7" s="1">
-        <v>46058.60782104167</v>
+        <v>Created</v>
       </c>
       <c r="K7" t="str">
         <v>ORN1</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N7" t="str">
-        <v>יגאל אלון 98, תל אביב יפו, ישראל</v>
+        <v>קניותר, האירוסים 53, נס ציונה, 7406602, ישראל</v>
       </c>
       <c r="O7" t="str">
-        <v>תל אביב-יפו</v>
+        <v>נס ציונה</v>
       </c>
       <c r="P7" t="str">
-        <v>10:30</v>
+        <v>14:00</v>
       </c>
       <c r="Q7" t="str">
-        <v>10:30-16:00</v>
+        <v>14:00-18:00</v>
       </c>
       <c r="R7" t="str">
-        <v>גולן טלקום בע"מ</v>
+        <v>KSP</v>
       </c>
       <c r="S7" t="str">
-        <v>0504891513</v>
+        <v>0504163174</v>
       </c>
       <c r="T7" t="str">
-        <v>אינטל פתח תקווה, החרוצים 7, פתח תקווה, ישראל</v>
+        <v>דרך המיסדים 9999, בית חנן, ישראל</v>
       </c>
       <c r="U7" t="str">
-        <v>פתח תקווה</v>
+        <v>בית חנן</v>
       </c>
       <c r="V7" t="str">
-        <v>10:30</v>
+        <v>14:00</v>
       </c>
       <c r="W7" t="str">
-        <v>10:30-16:00</v>
+        <v>14:00-18:00</v>
       </c>
       <c r="X7" t="str">
-        <v>מאור</v>
+        <v>אלי מאנע</v>
       </c>
       <c r="Y7" t="str">
-        <v>0506555042</v>
+        <v>0548001770</v>
       </c>
       <c r="AA7" t="str">
-        <v>Pack ID: 2257928</v>
-      </c>
-      <c r="AB7">
-        <v>716781</v>
+        <v>Pack ID: 21088012</v>
       </c>
       <c r="AC7" t="str">
-        <v>VP3 VD2 7767915</v>
+        <v>VP3 VD2 4193505</v>
       </c>
       <c r="AD7" t="str">
-        <v>Envelope</v>
+        <v>Small</v>
       </c>
       <c r="AE7" t="str">
         <v>Autotest</v>
@@ -1110,83 +1026,71 @@
       </c>
       <c r="AI7" t="str">
         <v>0506664422</v>
-      </c>
-      <c r="AP7" t="str">
-        <v>rescheduled,e2m,try1</v>
-      </c>
-      <c r="AQ7" s="1">
-        <v>46058.60782104167</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>5413138</v>
+        <v>5414864</v>
       </c>
       <c r="D8" s="1">
-        <v>46057.84194832176</v>
+        <v>46065.33767436343</v>
       </c>
       <c r="E8" s="1">
-        <v>46058.4375</v>
+        <v>46065.583333333336</v>
       </c>
       <c r="F8" t="str">
         <v>Sdd</v>
       </c>
       <c r="G8" t="str">
-        <v>In route</v>
-      </c>
-      <c r="H8" s="1">
-        <v>46058.60766717593</v>
+        <v>Created</v>
       </c>
       <c r="K8" t="str">
         <v>ORN1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N8" t="str">
-        <v>הסיבים 18, פתח תקווה, ישראל</v>
+        <v>מדינת היהודים 60, הרצליה, ישראל</v>
       </c>
       <c r="O8" t="str">
-        <v>פתח תקווה</v>
+        <v>הרצליה</v>
       </c>
       <c r="P8" t="str">
-        <v>10:30</v>
+        <v>14:00</v>
       </c>
       <c r="Q8" t="str">
-        <v>10:30-16:00</v>
+        <v>14:00-18:00</v>
       </c>
       <c r="R8" t="str">
-        <v>אייבורי מחשבים בע"מ</v>
+        <v>אי.סי.טק בע''מ</v>
       </c>
       <c r="S8" t="str">
-        <v>0504391942</v>
+        <v>0504543745</v>
       </c>
       <c r="T8" t="str">
-        <v>דיזנגוף 198, תל אביב-יפו, ישראל</v>
+        <v>אנג'ל 78, כפר סבא, ישראל</v>
       </c>
       <c r="U8" t="str">
-        <v>תל אביב-יפו</v>
+        <v>כפר סבא</v>
       </c>
       <c r="V8" t="str">
-        <v>10:30</v>
+        <v>14:00</v>
       </c>
       <c r="W8" t="str">
-        <v>10:30-16:00</v>
+        <v>14:00-18:00</v>
       </c>
       <c r="X8" t="str">
-        <v>בעמ אלפא יזמות</v>
+        <v>אנואל</v>
       </c>
       <c r="Y8" t="str">
-        <v>0504464314</v>
+        <v>0527890151</v>
       </c>
       <c r="AA8" t="str">
-        <v>Pack ID: D724028232</v>
-      </c>
-      <c r="AB8">
-        <v>716668</v>
+        <v>Pack ID: GPV0A0YTU8</v>
       </c>
       <c r="AC8" t="str">
-        <v>VP3 VD2 5835441</v>
+        <v>VP3 VD2 5735071</v>
       </c>
       <c r="AD8" t="str">
         <v>Medium</v>
@@ -1206,82 +1110,70 @@
       <c r="AI8" t="str">
         <v>0506664422</v>
       </c>
-      <c r="AP8" t="str">
-        <v>rescheduled,e2m,try1</v>
-      </c>
-      <c r="AQ8" s="1">
-        <v>46058.60766717593</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>5413137</v>
+        <v>5414863</v>
       </c>
       <c r="D9" s="1">
-        <v>46057.84193957176</v>
+        <v>46065.33765872685</v>
       </c>
       <c r="E9" s="1">
-        <v>46058.4375</v>
+        <v>46065.583333333336</v>
       </c>
       <c r="F9" t="str">
         <v>Sdd</v>
       </c>
       <c r="G9" t="str">
-        <v>In route</v>
-      </c>
-      <c r="H9" s="1">
-        <v>46058.607620173614</v>
+        <v>Created</v>
       </c>
       <c r="K9" t="str">
         <v>ORN1</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N9" t="str">
-        <v>עופר קניותר, האירוסים, נס ציונה, ישראל</v>
+        <v xml:space="preserve"> סניף תל אביב המסגר, המסגר 53, תל אביב יפו, 6721706, ישראל</v>
       </c>
       <c r="O9" t="str">
-        <v>נס ציונה</v>
+        <v>תל אביב-יפו</v>
       </c>
       <c r="P9" t="str">
-        <v>10:30</v>
+        <v>14:00</v>
       </c>
       <c r="Q9" t="str">
-        <v>10:30-16:00</v>
+        <v>14:00-18:00</v>
       </c>
       <c r="R9" t="str">
-        <v>סטימצקי (2005 בע''מ)</v>
+        <v>KSP</v>
       </c>
       <c r="S9" t="str">
-        <v>0504113999</v>
+        <v>0504259265</v>
       </c>
       <c r="T9" t="str">
-        <v>יוסי בנאי 48, רמלה, ישראל</v>
+        <v>חטיבת אלכסנדרוני 5 רמת השרון רמת השרון ישראל</v>
       </c>
       <c r="U9" t="str">
-        <v>רמלה</v>
+        <v>רמת השרון</v>
       </c>
       <c r="V9" t="str">
-        <v>10:30</v>
+        <v>14:00</v>
       </c>
       <c r="W9" t="str">
-        <v>10:30-16:00</v>
+        <v>14:00-18:00</v>
       </c>
       <c r="X9" t="str">
-        <v>מירי מבורך</v>
+        <v>דניאל שרייר</v>
       </c>
       <c r="Y9" t="str">
-        <v>0509060908</v>
+        <v>0512727166</v>
       </c>
       <c r="AA9" t="str">
-        <v>Pack ID: 1415275350</v>
-      </c>
-      <c r="AB9">
-        <v>716643</v>
+        <v>Pack ID: 21065095</v>
       </c>
       <c r="AC9" t="str">
-        <v>VP3 VD2 7975375</v>
+        <v>VP3 VD2 4493573</v>
       </c>
       <c r="AD9" t="str">
         <v>Small</v>
@@ -1301,82 +1193,70 @@
       <c r="AI9" t="str">
         <v>0506664422</v>
       </c>
-      <c r="AP9" t="str">
-        <v>rescheduled,e2m,try1</v>
-      </c>
-      <c r="AQ9" s="1">
-        <v>46058.607620173614</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>5413136</v>
+        <v>5414862</v>
       </c>
       <c r="D10" s="1">
-        <v>46057.84193287037</v>
+        <v>46065.33764759259</v>
       </c>
       <c r="E10" s="1">
-        <v>46058.4375</v>
+        <v>46065.583333333336</v>
       </c>
       <c r="F10" t="str">
         <v>Sdd</v>
       </c>
       <c r="G10" t="str">
-        <v>In route</v>
-      </c>
-      <c r="H10" s="1">
-        <v>46058.60761423611</v>
+        <v>Created</v>
       </c>
       <c r="K10" t="str">
         <v>ORN1</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N10" t="str">
-        <v>בזל 44, תל אביב-יפו, ישראל</v>
+        <v>אייבורי סניף ראשי -מחסן ראשי, הסיבים, פתח תקווה, ישראל</v>
       </c>
       <c r="O10" t="str">
-        <v>תל אביב-יפו</v>
+        <v>פתח תקווה</v>
       </c>
       <c r="P10" t="str">
-        <v>10:30</v>
+        <v>14:00</v>
       </c>
       <c r="Q10" t="str">
-        <v>10:30-16:00</v>
+        <v>14:00-18:00</v>
       </c>
       <c r="R10" t="str">
-        <v>זסט</v>
+        <v>אייבורי מחשבים בע"מ</v>
       </c>
       <c r="S10" t="str">
-        <v>0504565455</v>
+        <v>0504161917</v>
       </c>
       <c r="T10" t="str">
-        <v>רחוב אשר ברש 23, הרצליה, ישראל</v>
+        <v>אחד העם 16, רמת גן, ישראל</v>
       </c>
       <c r="U10" t="str">
-        <v>הרצליה</v>
+        <v>רמת גן</v>
       </c>
       <c r="V10" t="str">
-        <v>10:30</v>
+        <v>14:00</v>
       </c>
       <c r="W10" t="str">
-        <v>10:30-16:00</v>
+        <v>14:00-18:00</v>
       </c>
       <c r="X10" t="str">
-        <v>נילי הראל</v>
+        <v>עומר גלבוע</v>
       </c>
       <c r="Y10" t="str">
-        <v>0522330170</v>
+        <v>0525993787</v>
       </c>
       <c r="AA10" t="str">
-        <v>Pack ID: 504</v>
-      </c>
-      <c r="AB10">
-        <v>716639</v>
+        <v>Pack ID: D724027611</v>
       </c>
       <c r="AC10" t="str">
-        <v>VP3 VD2 5031138</v>
+        <v>VP3 VD2 7247729</v>
       </c>
       <c r="AD10" t="str">
         <v>Medium</v>
@@ -1396,82 +1276,70 @@
       <c r="AI10" t="str">
         <v>0506664422</v>
       </c>
-      <c r="AP10" t="str">
-        <v>rescheduled,e2m,try1</v>
-      </c>
-      <c r="AQ10" s="1">
-        <v>46058.60761423611</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>5413135</v>
+        <v>5414861</v>
       </c>
       <c r="D11" s="1">
-        <v>46057.841926284724</v>
+        <v>46065.33763712963</v>
       </c>
       <c r="E11" s="1">
-        <v>46058.4375</v>
+        <v>46065.583333333336</v>
       </c>
       <c r="F11" t="str">
         <v>Sdd</v>
       </c>
       <c r="G11" t="str">
-        <v>In route</v>
-      </c>
-      <c r="H11" s="1">
-        <v>46058.607898090275</v>
+        <v>Created</v>
       </c>
       <c r="K11" t="str">
         <v>ORN1</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N11" t="str">
-        <v>מבצע קדש 68, בני ברק, ישראל</v>
+        <v xml:space="preserve"> סניף רמת השרון, סוקולוב 34, רמת השרון, 4723503, ישראל</v>
       </c>
       <c r="O11" t="str">
-        <v>בני ברק</v>
+        <v>רמת השרון</v>
       </c>
       <c r="P11" t="str">
-        <v>10:30</v>
+        <v>14:00</v>
       </c>
       <c r="Q11" t="str">
-        <v>10:30-16:00</v>
+        <v>14:00-18:00</v>
       </c>
       <c r="R11" t="str">
-        <v>הום סנטר</v>
+        <v>KSP</v>
       </c>
       <c r="S11" t="str">
-        <v>0504906147</v>
+        <v>0504540225</v>
       </c>
       <c r="T11" t="str">
-        <v>דרור 8, תל אביב-יפו, ישראל</v>
+        <v>ירושלים 16 כפר סבא כפר סבא ישראל</v>
       </c>
       <c r="U11" t="str">
-        <v>תל אביב-יפו</v>
+        <v>כפר סבא</v>
       </c>
       <c r="V11" t="str">
-        <v>10:30</v>
+        <v>14:00</v>
       </c>
       <c r="W11" t="str">
-        <v>10:30-16:00</v>
+        <v>14:00-18:00</v>
       </c>
       <c r="X11" t="str">
-        <v>סטודיו</v>
+        <v>אורי ילין</v>
       </c>
       <c r="Y11" t="str">
-        <v>0546430619</v>
+        <v>0546348610</v>
       </c>
       <c r="AA11" t="str">
-        <v>Pack ID: 21500</v>
-      </c>
-      <c r="AB11">
-        <v>716825</v>
+        <v>Pack ID: 21118902</v>
       </c>
       <c r="AC11" t="str">
-        <v>VP3 VD2 8848896</v>
+        <v>VP3 VD2 6081271</v>
       </c>
       <c r="AD11" t="str">
         <v>Medium</v>
@@ -1491,85 +1359,73 @@
       <c r="AI11" t="str">
         <v>0506664422</v>
       </c>
-      <c r="AP11" t="str">
-        <v>rescheduled,e2m,try1</v>
-      </c>
-      <c r="AQ11" s="1">
-        <v>46058.607898090275</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>5413134</v>
+        <v>5414860</v>
       </c>
       <c r="D12" s="1">
-        <v>46057.84191969907</v>
+        <v>46065.337626493056</v>
       </c>
       <c r="E12" s="1">
-        <v>46058.4375</v>
+        <v>46065.583333333336</v>
       </c>
       <c r="F12" t="str">
         <v>Sdd</v>
       </c>
       <c r="G12" t="str">
-        <v>In route</v>
-      </c>
-      <c r="H12" s="1">
-        <v>46058.60774559028</v>
+        <v>Created</v>
       </c>
       <c r="K12" t="str">
         <v>ORN1</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N12" t="str">
-        <v xml:space="preserve"> סניף חיפה מת"מ, מתחם שער הכרמל, נחום חת 5, חיפה, ישראל</v>
+        <v>דרך מנחם בגין 132, תל אביב יפו, ישראל</v>
       </c>
       <c r="O12" t="str">
-        <v>חיפה</v>
+        <v>תל אביב-יפו</v>
       </c>
       <c r="P12" t="str">
-        <v>10:30</v>
+        <v>14:00</v>
       </c>
       <c r="Q12" t="str">
-        <v>10:30-16:00</v>
+        <v>14:00-18:00</v>
       </c>
       <c r="R12" t="str">
-        <v>KSP</v>
+        <v>באג</v>
       </c>
       <c r="S12" t="str">
-        <v>0504423198</v>
+        <v>0504785755</v>
       </c>
       <c r="T12" t="str">
-        <v>שד מוריה 118 חיפה ישראל</v>
+        <v>פנקס 20, תל אביב-יפו, ישראל</v>
       </c>
       <c r="U12" t="str">
-        <v>חיפה</v>
+        <v>תל אביב-יפו</v>
       </c>
       <c r="V12" t="str">
-        <v>10:30</v>
+        <v>14:00</v>
       </c>
       <c r="W12" t="str">
-        <v>10:30-16:00</v>
+        <v>14:00-18:00</v>
       </c>
       <c r="X12" t="str">
-        <v>אדיר לוי</v>
+        <v>נורית צרפתי</v>
       </c>
       <c r="Y12" t="str">
-        <v>0522499144</v>
+        <v>0525581602</v>
       </c>
       <c r="AA12" t="str">
-        <v>Pack ID: 21043231</v>
-      </c>
-      <c r="AB12">
-        <v>716724</v>
+        <v>Pack ID: 802887</v>
       </c>
       <c r="AC12" t="str">
-        <v>VP3 VD2 1442415</v>
+        <v>VP3 VD2 2596365</v>
       </c>
       <c r="AD12" t="str">
-        <v>Large</v>
+        <v>Medium</v>
       </c>
       <c r="AE12" t="str">
         <v>Autotest</v>
@@ -1585,83 +1441,71 @@
       </c>
       <c r="AI12" t="str">
         <v>0506664422</v>
-      </c>
-      <c r="AP12" t="str">
-        <v>rescheduled,e2m,try1</v>
-      </c>
-      <c r="AQ12" s="1">
-        <v>46058.60774559028</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>5413133</v>
+        <v>5414859</v>
       </c>
       <c r="D13" s="1">
-        <v>46057.84191314815</v>
+        <v>46065.337609965274</v>
       </c>
       <c r="E13" s="1">
-        <v>46058.4375</v>
+        <v>46065.583333333336</v>
       </c>
       <c r="F13" t="str">
         <v>Sdd</v>
       </c>
       <c r="G13" t="str">
-        <v>In route</v>
-      </c>
-      <c r="H13" s="1">
-        <v>46058.607697708336</v>
+        <v>Created</v>
       </c>
       <c r="K13" t="str">
         <v>ORN1</v>
       </c>
       <c r="L13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N13" t="str">
-        <v xml:space="preserve"> סניף רמת אביב, מרכז טאגור, רחוב רבינדרנת טאגור 38, תל אביב יפו, ישראל</v>
+        <v xml:space="preserve"> סניף תל אביב המסגר, המסגר 53, תל אביב יפו, 6721706, ישראל</v>
       </c>
       <c r="O13" t="str">
         <v>תל אביב-יפו</v>
       </c>
       <c r="P13" t="str">
-        <v>10:30</v>
+        <v>14:00</v>
       </c>
       <c r="Q13" t="str">
-        <v>10:30-16:00</v>
+        <v>14:00-18:00</v>
       </c>
       <c r="R13" t="str">
         <v>KSP</v>
       </c>
       <c r="S13" t="str">
-        <v>0504271877</v>
+        <v>0504687218</v>
       </c>
       <c r="T13" t="str">
-        <v>הוגו ארנסט 16 חולון חולון ישראל</v>
+        <v>ז'בוטינסקי 2 פתח תקווה פתח תקווה ישראל</v>
       </c>
       <c r="U13" t="str">
-        <v>חולון</v>
+        <v>פתח תקווה</v>
       </c>
       <c r="V13" t="str">
-        <v>10:30</v>
+        <v>14:00</v>
       </c>
       <c r="W13" t="str">
-        <v>10:30-16:00</v>
+        <v>14:00-18:00</v>
       </c>
       <c r="X13" t="str">
-        <v>אביטל רבינוב</v>
+        <v>ערן לוין</v>
       </c>
       <c r="Y13" t="str">
-        <v>0586882683</v>
+        <v>0546787471</v>
       </c>
       <c r="AA13" t="str">
-        <v>Pack ID: 21108401</v>
-      </c>
-      <c r="AB13">
-        <v>716689</v>
+        <v>Pack ID: 21065770</v>
       </c>
       <c r="AC13" t="str">
-        <v>VP3 VD2 6170070</v>
+        <v>VP3 VD2 2613272</v>
       </c>
       <c r="AD13" t="str">
         <v>Small</v>
@@ -1681,85 +1525,73 @@
       <c r="AI13" t="str">
         <v>0506664422</v>
       </c>
-      <c r="AP13" t="str">
-        <v>rescheduled,e2m,try1</v>
-      </c>
-      <c r="AQ13" s="1">
-        <v>46058.607697708336</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>5413132</v>
+        <v>5414858</v>
       </c>
       <c r="D14" s="1">
-        <v>46057.84190659722</v>
+        <v>46065.33759072917</v>
       </c>
       <c r="E14" s="1">
-        <v>46058.4375</v>
+        <v>46065.583333333336</v>
       </c>
       <c r="F14" t="str">
         <v>Sdd</v>
       </c>
       <c r="G14" t="str">
-        <v>In route</v>
-      </c>
-      <c r="H14" s="1">
-        <v>46058.60763038194</v>
+        <v>Created</v>
       </c>
       <c r="K14" t="str">
         <v>ORN1</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N14" t="str">
-        <v>Ksp, דוד שמעוני 49, חדרה, ישראל</v>
+        <v>בזל 44, תל אביב-יפו, ישראל</v>
       </c>
       <c r="O14" t="str">
-        <v>חדרה</v>
+        <v>תל אביב-יפו</v>
       </c>
       <c r="P14" t="str">
-        <v>10:30</v>
+        <v>14:00</v>
       </c>
       <c r="Q14" t="str">
-        <v>10:30-16:00</v>
+        <v>14:00-18:00</v>
       </c>
       <c r="R14" t="str">
-        <v>KSP</v>
+        <v>זסט</v>
       </c>
       <c r="S14" t="str">
-        <v>0504194247</v>
+        <v>0504679570</v>
       </c>
       <c r="T14" t="str">
-        <v>סביון 2 פרדס חנה-כרכור פרדס חנה-כרכור ישראל</v>
+        <v>הורדים 22, כפר שמריהו, ישראל</v>
       </c>
       <c r="U14" t="str">
-        <v>פרדס חנה כרכור</v>
+        <v>כפר שמריהו</v>
       </c>
       <c r="V14" t="str">
-        <v>10:30</v>
+        <v>14:00</v>
       </c>
       <c r="W14" t="str">
-        <v>10:30-16:00</v>
+        <v>14:00-18:00</v>
       </c>
       <c r="X14" t="str">
-        <v>אסיא פרץ</v>
+        <v>דפנה גניגר</v>
       </c>
       <c r="Y14" t="str">
-        <v>0549090883</v>
+        <v>0523222666</v>
       </c>
       <c r="AA14" t="str">
-        <v>Pack ID: 21113951</v>
-      </c>
-      <c r="AB14">
-        <v>716649</v>
+        <v>Pack ID: 414</v>
       </c>
       <c r="AC14" t="str">
-        <v>VP3 VD2 2183860</v>
+        <v>VP3 VD2 3429841</v>
       </c>
       <c r="AD14" t="str">
-        <v>Envelope</v>
+        <v>Medium</v>
       </c>
       <c r="AE14" t="str">
         <v>Autotest</v>
@@ -1775,86 +1607,74 @@
       </c>
       <c r="AI14" t="str">
         <v>0506664422</v>
-      </c>
-      <c r="AP14" t="str">
-        <v>rescheduled,e2m,try1</v>
-      </c>
-      <c r="AQ14" s="1">
-        <v>46058.60763038194</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>5413131</v>
+        <v>5414857</v>
       </c>
       <c r="D15" s="1">
-        <v>46057.84189996528</v>
+        <v>46065.337579756946</v>
       </c>
       <c r="E15" s="1">
-        <v>46058.4375</v>
+        <v>46065.583333333336</v>
       </c>
       <c r="F15" t="str">
         <v>Sdd</v>
       </c>
       <c r="G15" t="str">
-        <v>In route</v>
-      </c>
-      <c r="H15" s="1">
-        <v>46058.60791946759</v>
+        <v>Created</v>
       </c>
       <c r="K15" t="str">
         <v>ORN1</v>
       </c>
       <c r="L15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N15" t="str">
-        <v xml:space="preserve"> סניף ירושלים (חוצבים), קרית המדע 3, ירושלים, 9777603, ישראל</v>
+        <v>הסיבים 18, פתח תקווה, ישראל</v>
       </c>
       <c r="O15" t="str">
-        <v>ירושלים</v>
+        <v>פתח תקווה</v>
       </c>
       <c r="P15" t="str">
-        <v>10:30</v>
+        <v>14:00</v>
       </c>
       <c r="Q15" t="str">
-        <v>10:30-16:00</v>
+        <v>14:00-18:00</v>
       </c>
       <c r="R15" t="str">
-        <v>KSP</v>
+        <v>אייבורי מחשבים בע"מ</v>
       </c>
       <c r="S15" t="str">
-        <v>0504406019</v>
+        <v>0504774908</v>
       </c>
       <c r="T15" t="str">
-        <v>תבור 3 מבשרת ציון מבשרת ציון ישראל</v>
+        <v>עזריאל 10, רמת גן, ישראל</v>
       </c>
       <c r="U15" t="str">
-        <v>מבשרת ציון</v>
+        <v>רמת גן</v>
       </c>
       <c r="V15" t="str">
-        <v>10:30</v>
+        <v>14:00</v>
       </c>
       <c r="W15" t="str">
-        <v>10:30-16:00</v>
+        <v>14:00-18:00</v>
       </c>
       <c r="X15" t="str">
-        <v>רותם שמחי</v>
+        <v>גולדברג קרן</v>
       </c>
       <c r="Y15" t="str">
-        <v>0523790288</v>
+        <v>0523257200</v>
       </c>
       <c r="AA15" t="str">
-        <v>Pack ID: 21119232</v>
-      </c>
-      <c r="AB15">
-        <v>716842</v>
+        <v>Pack ID: D724026406</v>
       </c>
       <c r="AC15" t="str">
-        <v>VP3 VD2 9173803</v>
+        <v>VP3 VD2 1618981</v>
       </c>
       <c r="AD15" t="str">
-        <v>Small</v>
+        <v>Medium</v>
       </c>
       <c r="AE15" t="str">
         <v>Autotest</v>
@@ -1870,86 +1690,74 @@
       </c>
       <c r="AI15" t="str">
         <v>0506664422</v>
-      </c>
-      <c r="AP15" t="str">
-        <v>rescheduled,e2m,try1</v>
-      </c>
-      <c r="AQ15" s="1">
-        <v>46058.60791946759</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>5413130</v>
+        <v>5414856</v>
       </c>
       <c r="D16" s="1">
-        <v>46057.84189318287</v>
+        <v>46065.33756891204</v>
       </c>
       <c r="E16" s="1">
-        <v>46058.4375</v>
+        <v>46065.583333333336</v>
       </c>
       <c r="F16" t="str">
         <v>Sdd</v>
       </c>
       <c r="G16" t="str">
-        <v>In route</v>
-      </c>
-      <c r="H16" s="1">
-        <v>46058.60776019676</v>
+        <v>Created</v>
       </c>
       <c r="K16" t="str">
         <v>ORN1</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N16" t="str">
-        <v>אהרון בקר 8, תל אביב-יפו, ישראל</v>
+        <v>ביאליק 76, רמת גן, ישראל</v>
       </c>
       <c r="O16" t="str">
-        <v>תל אביב-יפו</v>
+        <v>רמת גן</v>
       </c>
       <c r="P16" t="str">
-        <v>10:30</v>
+        <v>14:00</v>
       </c>
       <c r="Q16" t="str">
-        <v>10:30-16:00</v>
+        <v>14:00-18:00</v>
       </c>
       <c r="R16" t="str">
-        <v>חוש הטעם</v>
+        <v>KSP</v>
       </c>
       <c r="S16" t="str">
-        <v>0504347589</v>
+        <v>0504134004</v>
       </c>
       <c r="T16" t="str">
-        <v>דרך הגבורה 27, תל אביב-יפו, ישראל</v>
+        <v>עוזיאל 29 רמת גן רמת גן ישראל</v>
       </c>
       <c r="U16" t="str">
-        <v>תל אביב-יפו</v>
+        <v>רמת גן</v>
       </c>
       <c r="V16" t="str">
-        <v>10:30</v>
+        <v>14:00</v>
       </c>
       <c r="W16" t="str">
-        <v>10:30-16:00</v>
+        <v>14:00-18:00</v>
       </c>
       <c r="X16" t="str">
-        <v>צביקה גולדיס</v>
+        <v>צבי ג'קוב הוכהויזר</v>
       </c>
       <c r="Y16" t="str">
-        <v>0528222616</v>
+        <v>0505785572</v>
       </c>
       <c r="AA16" t="str">
-        <v>Pack ID: GPUXK3GHB1</v>
-      </c>
-      <c r="AB16">
-        <v>716735</v>
+        <v>Pack ID: 21113435</v>
       </c>
       <c r="AC16" t="str">
-        <v>VP3 VD2 1807843</v>
+        <v>VP3 VD2 5260353</v>
       </c>
       <c r="AD16" t="str">
-        <v>Medium</v>
+        <v>Envelope</v>
       </c>
       <c r="AE16" t="str">
         <v>Autotest</v>
@@ -1965,86 +1773,74 @@
       </c>
       <c r="AI16" t="str">
         <v>0506664422</v>
-      </c>
-      <c r="AP16" t="str">
-        <v>rescheduled,e2m,try1</v>
-      </c>
-      <c r="AQ16" s="1">
-        <v>46058.60776019676</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>5413129</v>
+        <v>5414855</v>
       </c>
       <c r="D17" s="1">
-        <v>46057.84188658565</v>
+        <v>46065.337497962966</v>
       </c>
       <c r="E17" s="1">
-        <v>46058.4375</v>
+        <v>46065.583333333336</v>
       </c>
       <c r="F17" t="str">
         <v>Sdd</v>
       </c>
       <c r="G17" t="str">
-        <v>In route</v>
-      </c>
-      <c r="H17" s="1">
-        <v>46058.6075931713</v>
+        <v>Created</v>
       </c>
       <c r="K17" t="str">
         <v>ORN1</v>
       </c>
       <c r="L17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N17" t="str">
-        <v>הל"ה 24, דירה 3, גבעתיים, ישראל</v>
+        <v>שוקן 27, תל אביב-יפו, ישראל</v>
       </c>
       <c r="O17" t="str">
-        <v>גבעתיים</v>
+        <v>תל אביב-יפו</v>
       </c>
       <c r="P17" t="str">
-        <v>10:30</v>
+        <v>14:00</v>
       </c>
       <c r="Q17" t="str">
-        <v>10:30-16:00</v>
+        <v>14:00-18:00</v>
       </c>
       <c r="R17" t="str">
-        <v>KSP</v>
+        <v>925panda</v>
       </c>
       <c r="S17" t="str">
-        <v>0504166775</v>
+        <v>0504123831</v>
       </c>
       <c r="T17" t="str">
-        <v>, ביאליק, רמת גן, ישראל</v>
+        <v>ראשונים 6, תל אביב-יפו, ישראל</v>
       </c>
       <c r="U17" t="str">
-        <v>רמת גן</v>
+        <v>תל אביב-יפו</v>
       </c>
       <c r="V17" t="str">
-        <v>10:30</v>
+        <v>14:00</v>
       </c>
       <c r="W17" t="str">
-        <v>10:30-16:00</v>
+        <v>14:00-18:00</v>
       </c>
       <c r="X17" t="str">
-        <v>נציג Ksp</v>
+        <v>נטע כהן</v>
       </c>
       <c r="Y17" t="str">
-        <v>0504577878</v>
+        <v>0547372070</v>
       </c>
       <c r="AA17" t="str">
-        <v>Pack ID: 20179003</v>
-      </c>
-      <c r="AB17">
-        <v>716630</v>
+        <v>Pack ID: GP9D52KX6F</v>
       </c>
       <c r="AC17" t="str">
-        <v>VP3 VD2 6159158</v>
+        <v>VP3 VD2 2062300</v>
       </c>
       <c r="AD17" t="str">
-        <v>Small</v>
+        <v>Envelope</v>
       </c>
       <c r="AE17" t="str">
         <v>Autotest</v>
@@ -2060,86 +1856,74 @@
       </c>
       <c r="AI17" t="str">
         <v>0506664422</v>
-      </c>
-      <c r="AP17" t="str">
-        <v>rescheduled,e2m,try1</v>
-      </c>
-      <c r="AQ17" s="1">
-        <v>46058.6075931713</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>5413128</v>
+        <v>5414854</v>
       </c>
       <c r="D18" s="1">
-        <v>46057.841880092594</v>
+        <v>46065.33748570602</v>
       </c>
       <c r="E18" s="1">
-        <v>46058.4375</v>
+        <v>46065.583333333336</v>
       </c>
       <c r="F18" t="str">
         <v>Sdd</v>
       </c>
       <c r="G18" t="str">
-        <v>In route</v>
-      </c>
-      <c r="H18" s="1">
-        <v>46058.60760491898</v>
+        <v>Created</v>
       </c>
       <c r="K18" t="str">
         <v>ORN1</v>
       </c>
       <c r="L18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N18" t="str">
-        <v xml:space="preserve"> סניף סטלה מאריס, טשרניחובסקי 35, חיפה, ישראל</v>
+        <v>רח' אריה אלטמן 12, ירושלים, ישראל</v>
       </c>
       <c r="O18" t="str">
-        <v>חיפה</v>
+        <v>ירושלים</v>
       </c>
       <c r="P18" t="str">
-        <v>10:30</v>
+        <v>14:00</v>
       </c>
       <c r="Q18" t="str">
-        <v>10:30-16:00</v>
+        <v>14:00-18:00</v>
       </c>
       <c r="R18" t="str">
-        <v>KSP</v>
+        <v>אייבורי מחשבים בע"מ</v>
       </c>
       <c r="S18" t="str">
-        <v>0504963293</v>
+        <v>0504486444</v>
       </c>
       <c r="T18" t="str">
-        <v>התמר 18 חיפה חיפה ישראל</v>
+        <v>אייבורי מחשבים וסלולר, הפרסה, ירושלים, ישראל</v>
       </c>
       <c r="U18" t="str">
-        <v>חיפה</v>
+        <v>ירושלים</v>
       </c>
       <c r="V18" t="str">
-        <v>10:30</v>
+        <v>14:00</v>
       </c>
       <c r="W18" t="str">
-        <v>10:30-16:00</v>
+        <v>14:00-18:00</v>
       </c>
       <c r="X18" t="str">
-        <v>Anastasiia Sviridova</v>
+        <v>אייבורי תלפיות ירושל</v>
       </c>
       <c r="Y18" t="str">
-        <v>0548828178</v>
+        <v>0522219388</v>
       </c>
       <c r="AA18" t="str">
-        <v>Pack ID: 21108215</v>
-      </c>
-      <c r="AB18">
-        <v>716633</v>
+        <v>Pack ID: L72400887</v>
       </c>
       <c r="AC18" t="str">
-        <v>VP3 VD2 7010271</v>
+        <v>VP3 VD2 5589145</v>
       </c>
       <c r="AD18" t="str">
-        <v>Small</v>
+        <v>Medium</v>
       </c>
       <c r="AE18" t="str">
         <v>Autotest</v>
@@ -2155,86 +1939,74 @@
       </c>
       <c r="AI18" t="str">
         <v>0506664422</v>
-      </c>
-      <c r="AP18" t="str">
-        <v>rescheduled,e2m,try1</v>
-      </c>
-      <c r="AQ18" s="1">
-        <v>46058.60760491898</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>5413127</v>
+        <v>5414853</v>
       </c>
       <c r="D19" s="1">
-        <v>46057.841873391204</v>
+        <v>46065.337470011575</v>
       </c>
       <c r="E19" s="1">
-        <v>46058.4375</v>
+        <v>46065.583333333336</v>
       </c>
       <c r="F19" t="str">
         <v>Sdd</v>
       </c>
       <c r="G19" t="str">
-        <v>In route</v>
-      </c>
-      <c r="H19" s="1">
-        <v>46058.607914699074</v>
+        <v>Created</v>
       </c>
       <c r="K19" t="str">
         <v>ORN1</v>
       </c>
       <c r="L19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N19" t="str">
-        <v>לסל 16, תל אביב-יפו, ישראל</v>
+        <v>דרך יבנה 34, רחובות, ישראל</v>
       </c>
       <c r="O19" t="str">
-        <v>תל אביב-יפו</v>
+        <v>רחובות</v>
       </c>
       <c r="P19" t="str">
-        <v>10:30</v>
+        <v>14:00</v>
       </c>
       <c r="Q19" t="str">
-        <v>10:30-16:00</v>
+        <v>14:00-18:00</v>
       </c>
       <c r="R19" t="str">
-        <v>נורדיק בדיז ישראל</v>
+        <v>אייבורי מחשבים בע"מ</v>
       </c>
       <c r="S19" t="str">
-        <v>0504484290</v>
+        <v>0504925445</v>
       </c>
       <c r="T19" t="str">
-        <v>אמיר גלבוע 6, תל אביב-יפו, ישראל</v>
+        <v>אדמונית 7, לוד, ישראל</v>
       </c>
       <c r="U19" t="str">
-        <v>תל אביב-יפו</v>
+        <v>לוד</v>
       </c>
       <c r="V19" t="str">
-        <v>10:30</v>
+        <v>14:00</v>
       </c>
       <c r="W19" t="str">
-        <v>10:30-16:00</v>
+        <v>14:00-18:00</v>
       </c>
       <c r="X19" t="str">
-        <v>מאיה כפיר מוזר</v>
+        <v>בוריס מלקיס</v>
       </c>
       <c r="Y19" t="str">
-        <v>0506678974</v>
+        <v>0508563474</v>
       </c>
       <c r="AA19" t="str">
-        <v>Pack ID: GP5HYN82YG</v>
-      </c>
-      <c r="AB19">
-        <v>716840</v>
+        <v>Pack ID: D724027126</v>
       </c>
       <c r="AC19" t="str">
-        <v>VP3 VD2 8201638</v>
+        <v>VP3 VD2 7997266</v>
       </c>
       <c r="AD19" t="str">
-        <v>Small</v>
+        <v>Medium</v>
       </c>
       <c r="AE19" t="str">
         <v>Autotest</v>
@@ -2250,83 +2022,71 @@
       </c>
       <c r="AI19" t="str">
         <v>0506664422</v>
-      </c>
-      <c r="AP19" t="str">
-        <v>rescheduled,e2m,try1</v>
-      </c>
-      <c r="AQ19" s="1">
-        <v>46058.607914699074</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>5413126</v>
+        <v>5414852</v>
       </c>
       <c r="D20" s="1">
-        <v>46057.84186674769</v>
+        <v>46065.33745890046</v>
       </c>
       <c r="E20" s="1">
-        <v>46058.4375</v>
+        <v>46065.583333333336</v>
       </c>
       <c r="F20" t="str">
         <v>Sdd</v>
       </c>
       <c r="G20" t="str">
-        <v>In route</v>
-      </c>
-      <c r="H20" s="1">
-        <v>46058.60790782407</v>
+        <v>Created</v>
       </c>
       <c r="K20" t="str">
         <v>ORN1</v>
       </c>
       <c r="L20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N20" t="str">
-        <v xml:space="preserve"> סניף תל אביב המסגר, המסגר 53, תל אביב יפו, 6721706, ישראל</v>
+        <v xml:space="preserve"> סניף ת"א החשמונאים, החשמונאים 88, תל אביב-יפו, ישראל</v>
       </c>
       <c r="O20" t="str">
         <v>תל אביב-יפו</v>
       </c>
       <c r="P20" t="str">
-        <v>10:30</v>
+        <v>14:00</v>
       </c>
       <c r="Q20" t="str">
-        <v>10:30-16:00</v>
+        <v>14:00-18:00</v>
       </c>
       <c r="R20" t="str">
         <v>KSP</v>
       </c>
       <c r="S20" t="str">
-        <v>0504555139</v>
+        <v>0504478600</v>
       </c>
       <c r="T20" t="str">
-        <v>ז'בוטינסקי 2 פתח תקווה פתח תקווה ישראל</v>
+        <v>דרך בגין 48 תל אביב - יפו תל אביב - יפו ישראל</v>
       </c>
       <c r="U20" t="str">
-        <v>פתח תקווה</v>
+        <v>תל אביב-יפו</v>
       </c>
       <c r="V20" t="str">
-        <v>10:30</v>
+        <v>14:00</v>
       </c>
       <c r="W20" t="str">
-        <v>10:30-16:00</v>
+        <v>14:00-18:00</v>
       </c>
       <c r="X20" t="str">
-        <v>ערן לוין</v>
+        <v>אייל דהן</v>
       </c>
       <c r="Y20" t="str">
-        <v>0546787471</v>
+        <v>0526955335</v>
       </c>
       <c r="AA20" t="str">
-        <v>Pack ID: 21065770</v>
-      </c>
-      <c r="AB20">
-        <v>716834</v>
+        <v>Pack ID: 21108358</v>
       </c>
       <c r="AC20" t="str">
-        <v>VP3 VD2 1174071</v>
+        <v>VP3 VD2 1832702</v>
       </c>
       <c r="AD20" t="str">
         <v>Small</v>
@@ -2346,85 +2106,73 @@
       <c r="AI20" t="str">
         <v>0506664422</v>
       </c>
-      <c r="AP20" t="str">
-        <v>rescheduled,e2m,try1</v>
-      </c>
-      <c r="AQ20" s="1">
-        <v>46058.60790782407</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>5413125</v>
+        <v>5414851</v>
       </c>
       <c r="D21" s="1">
-        <v>46057.84186019676</v>
+        <v>46065.33744793981</v>
       </c>
       <c r="E21" s="1">
-        <v>46058.4375</v>
+        <v>46065.583333333336</v>
       </c>
       <c r="F21" t="str">
         <v>Sdd</v>
       </c>
       <c r="G21" t="str">
-        <v>In route</v>
-      </c>
-      <c r="H21" s="1">
-        <v>46058.60760658565</v>
+        <v>Created</v>
       </c>
       <c r="K21" t="str">
         <v>ORN1</v>
       </c>
       <c r="L21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N21" t="str">
-        <v>תוצרת הארץ 3, פתח תקווה, ישראל</v>
+        <v>משה לוי 10, ראשון לציון, ישראל</v>
       </c>
       <c r="O21" t="str">
-        <v>פתח תקווה</v>
+        <v>ראשון לציון</v>
       </c>
       <c r="P21" t="str">
-        <v>10:30</v>
+        <v>14:00</v>
       </c>
       <c r="Q21" t="str">
-        <v>10:30-16:00</v>
+        <v>14:00-18:00</v>
       </c>
       <c r="R21" t="str">
         <v>KSP</v>
       </c>
       <c r="S21" t="str">
-        <v>0504465228</v>
+        <v>0504157954</v>
       </c>
       <c r="T21" t="str">
-        <v>ברנדה זאב 25 פתח תקווה פתח תקווה ישראל</v>
+        <v>מילצן חיים אליעזר 10 רחובות רחובות ישראל</v>
       </c>
       <c r="U21" t="str">
-        <v>פתח תקווה</v>
+        <v>רחובות</v>
       </c>
       <c r="V21" t="str">
-        <v>10:30</v>
+        <v>14:00</v>
       </c>
       <c r="W21" t="str">
-        <v>10:30-16:00</v>
+        <v>14:00-18:00</v>
       </c>
       <c r="X21" t="str">
-        <v>מקס שולמן</v>
+        <v>עזרא ביטאו</v>
       </c>
       <c r="Y21" t="str">
-        <v>0548022529</v>
+        <v>0548747789</v>
       </c>
       <c r="AA21" t="str">
-        <v>Pack ID: 21121444</v>
-      </c>
-      <c r="AB21">
-        <v>716634</v>
+        <v>Pack ID: 21131889</v>
       </c>
       <c r="AC21" t="str">
-        <v>VP3 VD2 7617064</v>
+        <v>VP3 VD2 6234855</v>
       </c>
       <c r="AD21" t="str">
-        <v>Small</v>
+        <v>Large</v>
       </c>
       <c r="AE21" t="str">
         <v>Autotest</v>
@@ -2440,86 +2188,74 @@
       </c>
       <c r="AI21" t="str">
         <v>0506664422</v>
-      </c>
-      <c r="AP21" t="str">
-        <v>rescheduled,e2m,try1</v>
-      </c>
-      <c r="AQ21" s="1">
-        <v>46058.60760658565</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>5413124</v>
+        <v>5414850</v>
       </c>
       <c r="D22" s="1">
-        <v>46057.84185357639</v>
+        <v>46065.33742498843</v>
       </c>
       <c r="E22" s="1">
-        <v>46058.4375</v>
+        <v>46065.583333333336</v>
       </c>
       <c r="F22" t="str">
         <v>Sdd</v>
       </c>
       <c r="G22" t="str">
-        <v>In route</v>
-      </c>
-      <c r="H22" s="1">
-        <v>46058.607658229164</v>
+        <v>Created</v>
       </c>
       <c r="K22" t="str">
         <v>ORN1</v>
       </c>
       <c r="L22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N22" t="str">
-        <v xml:space="preserve"> סניף תל אביב המסגר, המסגר 53, תל אביב יפו, 6721706, ישראל</v>
+        <v>שדרות אח"י אילת 10, חיפה, ישראל</v>
       </c>
       <c r="O22" t="str">
-        <v>תל אביב-יפו</v>
+        <v>חיפה</v>
       </c>
       <c r="P22" t="str">
-        <v>10:30</v>
+        <v>14:00</v>
       </c>
       <c r="Q22" t="str">
-        <v>10:30-16:00</v>
+        <v>14:00-18:00</v>
       </c>
       <c r="R22" t="str">
-        <v>KSP</v>
+        <v>rebar@home</v>
       </c>
       <c r="S22" t="str">
-        <v>0504578834</v>
+        <v>0504673194</v>
       </c>
       <c r="T22" t="str">
-        <v>ז'בוטינסקי 137 תל אביב - יפו תל אביב - יפו ישראל</v>
+        <v>שדרות טרומפלדור 24, חיפה, ישראל</v>
       </c>
       <c r="U22" t="str">
-        <v>תל אביב-יפו</v>
+        <v>חיפה</v>
       </c>
       <c r="V22" t="str">
-        <v>10:30</v>
+        <v>14:00</v>
       </c>
       <c r="W22" t="str">
-        <v>10:30-16:00</v>
+        <v>14:00-18:00</v>
       </c>
       <c r="X22" t="str">
-        <v>ורד גבאי</v>
+        <v>טוהר אמויאל</v>
       </c>
       <c r="Y22" t="str">
-        <v>0547773340</v>
+        <v>0527276580</v>
       </c>
       <c r="AA22" t="str">
-        <v>Pack ID: 21076730</v>
-      </c>
-      <c r="AB22">
-        <v>716662</v>
+        <v>Pack ID: 114099401</v>
       </c>
       <c r="AC22" t="str">
-        <v>VP3 VD2 3863778</v>
+        <v>VP3 VD2 5848887</v>
       </c>
       <c r="AD22" t="str">
-        <v>Large</v>
+        <v>Medium</v>
       </c>
       <c r="AE22" t="str">
         <v>Autotest</v>
@@ -2535,86 +2271,74 @@
       </c>
       <c r="AI22" t="str">
         <v>0506664422</v>
-      </c>
-      <c r="AP22" t="str">
-        <v>rescheduled,e2m,try1</v>
-      </c>
-      <c r="AQ22" s="1">
-        <v>46058.607658229164</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>5413123</v>
+        <v>5414849</v>
       </c>
       <c r="D23" s="1">
-        <v>46057.841833425926</v>
+        <v>46065.33740153935</v>
       </c>
       <c r="E23" s="1">
-        <v>46058.4375</v>
+        <v>46065.583333333336</v>
       </c>
       <c r="F23" t="str">
         <v>Sdd</v>
       </c>
       <c r="G23" t="str">
-        <v>In route</v>
-      </c>
-      <c r="H23" s="1">
-        <v>46058.6077578125</v>
+        <v>Created</v>
       </c>
       <c r="K23" t="str">
         <v>ORN1</v>
       </c>
       <c r="L23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N23" t="str">
-        <v>יגאל אלון 98, תל אביב יפו, ישראל</v>
+        <v>, מרכז אלרם, אחוזה 96, רעננה, 4345002, ישראל</v>
       </c>
       <c r="O23" t="str">
-        <v>תל אביב-יפו</v>
+        <v>רעננה</v>
       </c>
       <c r="P23" t="str">
-        <v>10:30</v>
+        <v>14:00</v>
       </c>
       <c r="Q23" t="str">
-        <v>10:30-16:00</v>
+        <v>14:00-18:00</v>
       </c>
       <c r="R23" t="str">
-        <v>גולן טלקום בע"מ</v>
+        <v>KSP</v>
       </c>
       <c r="S23" t="str">
-        <v>0504752740</v>
+        <v>0504900295</v>
       </c>
       <c r="T23" t="str">
-        <v>קהילת ניו יורק 30, תל אביב-יפו, ישראל</v>
+        <v>משעול בית הבד 4 כפר סבא כפר סבא ישראל</v>
       </c>
       <c r="U23" t="str">
-        <v>תל אביב-יפו</v>
+        <v>כפר סבא</v>
       </c>
       <c r="V23" t="str">
-        <v>10:30</v>
+        <v>14:00</v>
       </c>
       <c r="W23" t="str">
-        <v>10:30-16:00</v>
+        <v>14:00-18:00</v>
       </c>
       <c r="X23" t="str">
-        <v>סדיה</v>
+        <v>אסיה ויינר</v>
       </c>
       <c r="Y23" t="str">
-        <v>0502711558</v>
+        <v>0547273652</v>
       </c>
       <c r="AA23" t="str">
-        <v>Pack ID: 809507</v>
-      </c>
-      <c r="AB23">
-        <v>716733</v>
+        <v>Pack ID: 21088636</v>
       </c>
       <c r="AC23" t="str">
-        <v>VP3 VD2 9423032</v>
+        <v>VP3 VD2 7071727</v>
       </c>
       <c r="AD23" t="str">
-        <v>Envelope</v>
+        <v>Small</v>
       </c>
       <c r="AE23" t="str">
         <v>Autotest</v>
@@ -2630,86 +2354,74 @@
       </c>
       <c r="AI23" t="str">
         <v>0506664422</v>
-      </c>
-      <c r="AP23" t="str">
-        <v>rescheduled,e2m,try1</v>
-      </c>
-      <c r="AQ23" s="1">
-        <v>46058.6077578125</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>5413122</v>
+        <v>5414848</v>
       </c>
       <c r="D24" s="1">
-        <v>46057.84182688657</v>
+        <v>46065.33736549768</v>
       </c>
       <c r="E24" s="1">
-        <v>46058.4375</v>
+        <v>46065.583333333336</v>
       </c>
       <c r="F24" t="str">
         <v>Sdd</v>
       </c>
       <c r="G24" t="str">
-        <v>In route</v>
-      </c>
-      <c r="H24" s="1">
-        <v>46058.60775538194</v>
+        <v>Created</v>
       </c>
       <c r="K24" t="str">
         <v>ORN1</v>
       </c>
       <c r="L24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N24" t="str">
-        <v>מבצע קדש 68, בני ברק, ישראל</v>
+        <v>שירת הזמיר 9, הרצליה, ישראל</v>
       </c>
       <c r="O24" t="str">
-        <v>בני ברק</v>
+        <v>הרצליה</v>
       </c>
       <c r="P24" t="str">
-        <v>10:30</v>
+        <v>14:00</v>
       </c>
       <c r="Q24" t="str">
-        <v>10:30-16:00</v>
+        <v>14:00-18:00</v>
       </c>
       <c r="R24" t="str">
-        <v>הום סנטר</v>
+        <v>דר ויטמין</v>
       </c>
       <c r="S24" t="str">
-        <v>0504866780</v>
+        <v>0504130402</v>
       </c>
       <c r="T24" t="str">
-        <v>שלמה המלך 76, תל אביב-יפו, ישראל</v>
+        <v>המרגנית 41, רמת גן, ישראל</v>
       </c>
       <c r="U24" t="str">
-        <v>תל אביב-יפו</v>
+        <v>רמת גן</v>
       </c>
       <c r="V24" t="str">
-        <v>10:30</v>
+        <v>14:00</v>
       </c>
       <c r="W24" t="str">
-        <v>10:30-16:00</v>
+        <v>14:00-18:00</v>
       </c>
       <c r="X24" t="str">
-        <v>רון</v>
+        <v>אלוירה מרון</v>
       </c>
       <c r="Y24" t="str">
-        <v>0522563503</v>
+        <v>0544463184</v>
       </c>
       <c r="AA24" t="str">
-        <v>Pack ID: 20944</v>
-      </c>
-      <c r="AB24">
-        <v>716731</v>
+        <v>Pack ID: 23118</v>
       </c>
       <c r="AC24" t="str">
-        <v>VP3 VD2 9353695</v>
+        <v>VP3 VD2 9992130</v>
       </c>
       <c r="AD24" t="str">
-        <v>Large</v>
+        <v>Small</v>
       </c>
       <c r="AE24" t="str">
         <v>Autotest</v>
@@ -2725,86 +2437,74 @@
       </c>
       <c r="AI24" t="str">
         <v>0506664422</v>
-      </c>
-      <c r="AP24" t="str">
-        <v>rescheduled,e2m,try1</v>
-      </c>
-      <c r="AQ24" s="1">
-        <v>46058.60775538194</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>5413121</v>
+        <v>5414847</v>
       </c>
       <c r="D25" s="1">
-        <v>46057.84182028935</v>
+        <v>46065.33735460648</v>
       </c>
       <c r="E25" s="1">
-        <v>46058.4375</v>
+        <v>46065.583333333336</v>
       </c>
       <c r="F25" t="str">
         <v>Sdd</v>
       </c>
       <c r="G25" t="str">
-        <v>In route</v>
-      </c>
-      <c r="H25" s="1">
-        <v>46058.607632280095</v>
+        <v>Created</v>
       </c>
       <c r="K25" t="str">
         <v>ORN1</v>
       </c>
       <c r="L25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N25" t="str">
-        <v>סוקולוב 96, חולון, ישראל</v>
+        <v>גוש עציון 15, גבעת שמואל, ישראל</v>
       </c>
       <c r="O25" t="str">
-        <v>חולון</v>
+        <v>גבעת שמואל</v>
       </c>
       <c r="P25" t="str">
-        <v>10:30</v>
+        <v>14:00</v>
       </c>
       <c r="Q25" t="str">
-        <v>10:30-16:00</v>
+        <v>14:00-18:00</v>
       </c>
       <c r="R25" t="str">
-        <v>ברק דנין / דנין טכנולוגיות</v>
+        <v>חנה בן שושן</v>
       </c>
       <c r="S25" t="str">
-        <v>0504442472</v>
+        <v>0504538978</v>
       </c>
       <c r="T25" t="str">
-        <v>הדקל 43, גני תקווה, ישראל</v>
+        <v>לילינבלום 3, תל אביב-יפו, ישראל</v>
       </c>
       <c r="U25" t="str">
-        <v>גני תקווה</v>
+        <v>תל אביב-יפו</v>
       </c>
       <c r="V25" t="str">
-        <v>10:30</v>
+        <v>14:00</v>
       </c>
       <c r="W25" t="str">
-        <v>10:30-16:00</v>
+        <v>14:00-18:00</v>
       </c>
       <c r="X25" t="str">
-        <v>ברק דנין</v>
+        <v>יאן או תמר</v>
       </c>
       <c r="Y25" t="str">
-        <v>0548080100</v>
+        <v>0507665865</v>
       </c>
       <c r="AA25" t="str">
-        <v>Pack ID: GPXTX26HBK</v>
-      </c>
-      <c r="AB25">
-        <v>716650</v>
+        <v>Pack ID: GPPETNR588</v>
       </c>
       <c r="AC25" t="str">
-        <v>VP3 VD2 9848648</v>
+        <v>VP3 VD2 2814005</v>
       </c>
       <c r="AD25" t="str">
-        <v>Small</v>
+        <v>Medium</v>
       </c>
       <c r="AE25" t="str">
         <v>Autotest</v>
@@ -2820,86 +2520,74 @@
       </c>
       <c r="AI25" t="str">
         <v>0506664422</v>
-      </c>
-      <c r="AP25" t="str">
-        <v>rescheduled,e2m,try1</v>
-      </c>
-      <c r="AQ25" s="1">
-        <v>46058.607632280095</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>5413120</v>
+        <v>5414846</v>
       </c>
       <c r="D26" s="1">
-        <v>46057.841813645835</v>
+        <v>46065.33734353009</v>
       </c>
       <c r="E26" s="1">
-        <v>46058.4375</v>
+        <v>46065.583333333336</v>
       </c>
       <c r="F26" t="str">
         <v>Sdd</v>
       </c>
       <c r="G26" t="str">
-        <v>In route</v>
-      </c>
-      <c r="H26" s="1">
-        <v>46058.60783548611</v>
+        <v>Created</v>
       </c>
       <c r="K26" t="str">
         <v>ORN1</v>
       </c>
       <c r="L26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N26" t="str">
-        <v>דרך יבנה 34, רחובות, ישראל</v>
+        <v>משה לוי 10, ראשון לציון, ישראל</v>
       </c>
       <c r="O26" t="str">
-        <v>רחובות</v>
+        <v>ראשון לציון</v>
       </c>
       <c r="P26" t="str">
-        <v>10:30</v>
+        <v>14:00</v>
       </c>
       <c r="Q26" t="str">
-        <v>10:30-16:00</v>
+        <v>14:00-18:00</v>
       </c>
       <c r="R26" t="str">
-        <v>אייבורי מחשבים בע"מ</v>
+        <v>KSP</v>
       </c>
       <c r="S26" t="str">
-        <v>0504686250</v>
+        <v>0504518359</v>
       </c>
       <c r="T26" t="str">
-        <v>ריזה 1, עשרת, ישראל</v>
+        <v>דרורי אמיר 11 חולון חולון ישראל</v>
       </c>
       <c r="U26" t="str">
-        <v>מועצה אזורית גדרות</v>
+        <v>חולון</v>
       </c>
       <c r="V26" t="str">
-        <v>10:30</v>
+        <v>14:00</v>
       </c>
       <c r="W26" t="str">
-        <v>10:30-16:00</v>
+        <v>14:00-18:00</v>
       </c>
       <c r="X26" t="str">
-        <v>גליקסמן שי</v>
+        <v>אילנית אונגר</v>
       </c>
       <c r="Y26" t="str">
-        <v>0544907314</v>
+        <v>0525714240</v>
       </c>
       <c r="AA26" t="str">
-        <v>Pack ID: D724028642</v>
-      </c>
-      <c r="AB26">
-        <v>716793</v>
+        <v>Pack ID: 21097427</v>
       </c>
       <c r="AC26" t="str">
-        <v>VP3 VD2 2072061</v>
+        <v>VP3 VD2 4421910</v>
       </c>
       <c r="AD26" t="str">
-        <v>Medium</v>
+        <v>Envelope</v>
       </c>
       <c r="AE26" t="str">
         <v>Autotest</v>
@@ -2915,83 +2603,71 @@
       </c>
       <c r="AI26" t="str">
         <v>0506664422</v>
-      </c>
-      <c r="AP26" t="str">
-        <v>rescheduled,e2m,try1</v>
-      </c>
-      <c r="AQ26" s="1">
-        <v>46058.60783548611</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>5413119</v>
+        <v>5414845</v>
       </c>
       <c r="D27" s="1">
-        <v>46057.841807083336</v>
+        <v>46065.337317743055</v>
       </c>
       <c r="E27" s="1">
-        <v>46058.4375</v>
+        <v>46065.583333333336</v>
       </c>
       <c r="F27" t="str">
         <v>Sdd</v>
       </c>
       <c r="G27" t="str">
-        <v>In route</v>
-      </c>
-      <c r="H27" s="1">
-        <v>46058.60790326389</v>
+        <v>Created</v>
       </c>
       <c r="K27" t="str">
         <v>ORN1</v>
       </c>
       <c r="L27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N27" t="str">
-        <v>דוד סחרוב 21, ראשון לציון, ישראל</v>
+        <v>שלמה המלך 37, קרית אונו, ישראל</v>
       </c>
       <c r="O27" t="str">
-        <v>ראשון לציון</v>
+        <v>קרית אונו</v>
       </c>
       <c r="P27" t="str">
-        <v>10:30</v>
+        <v>14:00</v>
       </c>
       <c r="Q27" t="str">
-        <v>10:30-16:00</v>
+        <v>14:00-18:00</v>
       </c>
       <c r="R27" t="str">
-        <v>אלקליל בע"מ</v>
+        <v>KSP</v>
       </c>
       <c r="S27" t="str">
-        <v>0504440942</v>
+        <v>0504269470</v>
       </c>
       <c r="T27" t="str">
-        <v>רחל 18, חולון, ישראל</v>
+        <v>יהלום 12 נופך נופך ישראל</v>
       </c>
       <c r="U27" t="str">
-        <v>חולון</v>
+        <v>נופך</v>
       </c>
       <c r="V27" t="str">
-        <v>10:30</v>
+        <v>14:00</v>
       </c>
       <c r="W27" t="str">
-        <v>10:30-16:00</v>
+        <v>14:00-18:00</v>
       </c>
       <c r="X27" t="str">
-        <v>שרי</v>
+        <v>ירדן שבתאי</v>
       </c>
       <c r="Y27" t="str">
-        <v>0544970629</v>
+        <v>0508327003</v>
       </c>
       <c r="AA27" t="str">
-        <v>Pack ID: GPYJKT4E9S</v>
-      </c>
-      <c r="AB27">
-        <v>716830</v>
+        <v>Pack ID: 21091029</v>
       </c>
       <c r="AC27" t="str">
-        <v>VP3 VD2 9937152</v>
+        <v>VP1 VD0 5192500</v>
       </c>
       <c r="AD27" t="str">
         <v>Small</v>
@@ -3011,85 +2687,73 @@
       <c r="AI27" t="str">
         <v>0506664422</v>
       </c>
-      <c r="AP27" t="str">
-        <v>rescheduled,e2m,try1</v>
-      </c>
-      <c r="AQ27" s="1">
-        <v>46058.60790326389</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>5413118</v>
+        <v>5414844</v>
       </c>
       <c r="D28" s="1">
-        <v>46057.841800532406</v>
+        <v>46065.33728221065</v>
       </c>
       <c r="E28" s="1">
-        <v>46058.4375</v>
+        <v>46065.583333333336</v>
       </c>
       <c r="F28" t="str">
         <v>Sdd</v>
       </c>
       <c r="G28" t="str">
-        <v>In route</v>
-      </c>
-      <c r="H28" s="1">
-        <v>46058.60776648148</v>
+        <v>Created</v>
       </c>
       <c r="K28" t="str">
         <v>ORN1</v>
       </c>
       <c r="L28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N28" t="str">
-        <v>סופר-פארם מגדל המאה, שלמה אבן גבירול 124, תל אביב-יפו, ישראל</v>
+        <v>שינקין 2, תל אביב-יפו, ישראל</v>
       </c>
       <c r="O28" t="str">
         <v>תל אביב-יפו</v>
       </c>
       <c r="P28" t="str">
-        <v>10:30</v>
+        <v>14:00</v>
       </c>
       <c r="Q28" t="str">
-        <v>10:30-16:00</v>
+        <v>14:00-18:00</v>
       </c>
       <c r="R28" t="str">
-        <v>הגר הנהלת חשבונות</v>
+        <v>ספורט שינקין</v>
       </c>
       <c r="S28" t="str">
-        <v>0504612970</v>
+        <v>0504973757</v>
       </c>
       <c r="T28" t="str">
-        <v>הדובדבן 7, קריית אונו, ישראל</v>
+        <v>קלישר 20, תל אביב-יפו, ישראל</v>
       </c>
       <c r="U28" t="str">
-        <v>קרית אונו</v>
+        <v>תל אביב-יפו</v>
       </c>
       <c r="V28" t="str">
-        <v>10:30</v>
+        <v>14:00</v>
       </c>
       <c r="W28" t="str">
-        <v>10:30-16:00</v>
+        <v>14:00-18:00</v>
       </c>
       <c r="X28" t="str">
-        <v>הגר</v>
+        <v>ליאורה פרייז</v>
       </c>
       <c r="Y28" t="str">
-        <v>0504988008</v>
+        <v>0508555265</v>
       </c>
       <c r="AA28" t="str">
-        <v>Pack ID: GP50X289MW</v>
-      </c>
-      <c r="AB28">
-        <v>716740</v>
+        <v>Pack ID: GPRA80LPO4</v>
       </c>
       <c r="AC28" t="str">
-        <v>VP3 VD2 8408446</v>
+        <v>VP3 VD0 1450858</v>
       </c>
       <c r="AD28" t="str">
-        <v>Envelope</v>
+        <v>Small</v>
       </c>
       <c r="AE28" t="str">
         <v>Autotest</v>
@@ -3105,86 +2769,74 @@
       </c>
       <c r="AI28" t="str">
         <v>0506664422</v>
-      </c>
-      <c r="AP28" t="str">
-        <v>rescheduled,e2m,try1</v>
-      </c>
-      <c r="AQ28" s="1">
-        <v>46058.60776648148</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>5413117</v>
+        <v>5414843</v>
       </c>
       <c r="D29" s="1">
-        <v>46057.84179392361</v>
+        <v>46065.33727152778</v>
       </c>
       <c r="E29" s="1">
-        <v>46058.4375</v>
+        <v>46065.583333333336</v>
       </c>
       <c r="F29" t="str">
         <v>Sdd</v>
       </c>
       <c r="G29" t="str">
-        <v>In route</v>
-      </c>
-      <c r="H29" s="1">
-        <v>46058.60772288194</v>
+        <v>Created</v>
       </c>
       <c r="K29" t="str">
         <v>ORN1</v>
       </c>
       <c r="L29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N29" t="str">
-        <v>Tlamim Street 134, לוד, ישראל</v>
+        <v>דיזינגוף סנטר, דיזנגוף, תל אביב-יפו, ישראל</v>
       </c>
       <c r="O29" t="str">
-        <v>לוד</v>
+        <v>תל אביב-יפו</v>
       </c>
       <c r="P29" t="str">
-        <v>10:30</v>
+        <v>14:00</v>
       </c>
       <c r="Q29" t="str">
-        <v>10:30-16:00</v>
+        <v>14:00-18:00</v>
       </c>
       <c r="R29" t="str">
         <v>null</v>
       </c>
       <c r="S29" t="str">
-        <v>0504366616</v>
+        <v>0504933524</v>
       </c>
       <c r="T29" t="str">
-        <v>HaDvash Street, Kfar Bilu, ישראל</v>
+        <v>הרוקמים 26, חולון, ישראל</v>
       </c>
       <c r="U29" t="str">
-        <v>כפר ביל"ו</v>
+        <v>חולון</v>
       </c>
       <c r="V29" t="str">
-        <v>10:30</v>
+        <v>14:00</v>
       </c>
       <c r="W29" t="str">
-        <v>10:30-16:00</v>
+        <v>14:00-18:00</v>
       </c>
       <c r="X29" t="str">
-        <v>test</v>
+        <v>דורית לוי</v>
       </c>
       <c r="Y29" t="str">
-        <v>0506346048</v>
+        <v>0507771717</v>
       </c>
       <c r="AA29" t="str">
-        <v>Pack ID: GPDPBEMTJ8</v>
-      </c>
-      <c r="AB29">
-        <v>716708</v>
+        <v>Pack ID: GPC823M489</v>
       </c>
       <c r="AC29" t="str">
-        <v>VP3 VD2 9864156</v>
+        <v>VP3 VD1 8424682</v>
       </c>
       <c r="AD29" t="str">
-        <v>Envelope</v>
+        <v>Small</v>
       </c>
       <c r="AE29" t="str">
         <v>Autotest</v>
@@ -3200,86 +2852,74 @@
       </c>
       <c r="AI29" t="str">
         <v>0506664422</v>
-      </c>
-      <c r="AP29" t="str">
-        <v>rescheduled,e2m,try1</v>
-      </c>
-      <c r="AQ29" s="1">
-        <v>46058.60772288194</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
-        <v>5413116</v>
+        <v>5414842</v>
       </c>
       <c r="D30" s="1">
-        <v>46057.84178819445</v>
+        <v>46065.33726015046</v>
       </c>
       <c r="E30" s="1">
-        <v>46058.4375</v>
+        <v>46065.583333333336</v>
       </c>
       <c r="F30" t="str">
         <v>Sdd</v>
       </c>
       <c r="G30" t="str">
-        <v>In route</v>
-      </c>
-      <c r="H30" s="1">
-        <v>46058.607872939814</v>
+        <v>Created</v>
       </c>
       <c r="K30" t="str">
         <v>ORN1</v>
       </c>
       <c r="L30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N30" t="str">
-        <v xml:space="preserve"> סניף תל אביב המסגר, המסגר 53, תל אביב יפו, 6721706, ישראל</v>
+        <v>דרך אלוף שדה 15, גבעתיים, ישראל</v>
       </c>
       <c r="O30" t="str">
-        <v>תל אביב-יפו</v>
+        <v>גבעתיים</v>
       </c>
       <c r="P30" t="str">
-        <v>10:30</v>
+        <v>14:00</v>
       </c>
       <c r="Q30" t="str">
-        <v>10:30-16:00</v>
+        <v>14:00-18:00</v>
       </c>
       <c r="R30" t="str">
-        <v>KSP</v>
+        <v>בית המשקאות של נפתלי</v>
       </c>
       <c r="S30" t="str">
-        <v>0504549461</v>
+        <v>0504388344</v>
       </c>
       <c r="T30" t="str">
-        <v>אשכול לוי 82 תל אביב - יפו תל אביב - יפו ישראל</v>
+        <v>בלפור 8, תל אביב-יפו, ישראל</v>
       </c>
       <c r="U30" t="str">
         <v>תל אביב-יפו</v>
       </c>
       <c r="V30" t="str">
-        <v>10:30</v>
+        <v>14:00</v>
       </c>
       <c r="W30" t="str">
-        <v>10:30-16:00</v>
+        <v>14:00-18:00</v>
       </c>
       <c r="X30" t="str">
-        <v>שלומית גינתון</v>
+        <v>שלי יעקבזון</v>
       </c>
       <c r="Y30" t="str">
-        <v>0545627562</v>
+        <v>0547720002</v>
       </c>
       <c r="AA30" t="str">
-        <v>Pack ID: 21065725</v>
-      </c>
-      <c r="AB30">
-        <v>716804</v>
+        <v>Pack ID: GPHGFJE0OE</v>
       </c>
       <c r="AC30" t="str">
-        <v>VP1 VD0 3911091</v>
+        <v>VP3 VD0 8184211</v>
       </c>
       <c r="AD30" t="str">
-        <v>Small</v>
+        <v>Medium</v>
       </c>
       <c r="AE30" t="str">
         <v>Autotest</v>
@@ -3295,86 +2935,74 @@
       </c>
       <c r="AI30" t="str">
         <v>0506664422</v>
-      </c>
-      <c r="AP30" t="str">
-        <v>rescheduled,e2m,try1</v>
-      </c>
-      <c r="AQ30" s="1">
-        <v>46058.607872939814</v>
       </c>
     </row>
     <row r="31">
       <c r="A31">
-        <v>5413115</v>
+        <v>5414841</v>
       </c>
       <c r="D31" s="1">
-        <v>46057.8417816088</v>
+        <v>46065.33724927084</v>
       </c>
       <c r="E31" s="1">
-        <v>46058.4375</v>
+        <v>46065.583333333336</v>
       </c>
       <c r="F31" t="str">
         <v>Sdd</v>
       </c>
       <c r="G31" t="str">
-        <v>In route</v>
-      </c>
-      <c r="H31" s="1">
-        <v>46058.60766273148</v>
+        <v>Created</v>
       </c>
       <c r="K31" t="str">
         <v>ORN1</v>
       </c>
       <c r="L31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N31" t="str">
-        <v>קרית יוסף 7, גבעתיים, ישראל</v>
+        <v>סטימצקי, אנגל 78, כפר סבא, ישראל</v>
       </c>
       <c r="O31" t="str">
-        <v>גבעתיים</v>
+        <v>כפר סבא</v>
       </c>
       <c r="P31" t="str">
-        <v>10:30</v>
+        <v>14:00</v>
       </c>
       <c r="Q31" t="str">
-        <v>10:30-16:00</v>
+        <v>14:00-18:00</v>
       </c>
       <c r="R31" t="str">
-        <v>ב.ד. שרותי חשבנאות בע"מ</v>
+        <v>סטימצקי (2005 בע''מ)</v>
       </c>
       <c r="S31" t="str">
-        <v>0504534123</v>
+        <v>0504147687</v>
       </c>
       <c r="T31" t="str">
-        <v>יוסף קארו 13, תל אביב-יפו, ישראל</v>
+        <v>זוויתן 4, אבן יהודה, ישראל</v>
       </c>
       <c r="U31" t="str">
-        <v>תל אביב-יפו</v>
+        <v>אבן יהודה</v>
       </c>
       <c r="V31" t="str">
-        <v>10:30</v>
+        <v>14:00</v>
       </c>
       <c r="W31" t="str">
-        <v>10:30-16:00</v>
+        <v>14:00-18:00</v>
       </c>
       <c r="X31" t="str">
-        <v>בעז דויטש</v>
+        <v>ofer blonskey</v>
       </c>
       <c r="Y31" t="str">
-        <v>0526662728</v>
+        <v>0548060399</v>
       </c>
       <c r="AA31" t="str">
-        <v>Pack ID: GPTLJJ06TB</v>
-      </c>
-      <c r="AB31">
-        <v>716665</v>
+        <v>Pack ID: 1415271310</v>
       </c>
       <c r="AC31" t="str">
-        <v>VP3 VD1 4038319</v>
+        <v>VP3 VD1 9542857</v>
       </c>
       <c r="AD31" t="str">
-        <v>Envelope</v>
+        <v>Small</v>
       </c>
       <c r="AE31" t="str">
         <v>Autotest</v>
@@ -3390,86 +3018,74 @@
       </c>
       <c r="AI31" t="str">
         <v>0506664422</v>
-      </c>
-      <c r="AP31" t="str">
-        <v>rescheduled,e2m,try1</v>
-      </c>
-      <c r="AQ31" s="1">
-        <v>46058.60766273148</v>
       </c>
     </row>
     <row r="32">
       <c r="A32">
-        <v>5413114</v>
+        <v>5414840</v>
       </c>
       <c r="D32" s="1">
-        <v>46057.84177508102</v>
+        <v>46065.33723833333</v>
       </c>
       <c r="E32" s="1">
-        <v>46058.4375</v>
+        <v>46065.583333333336</v>
       </c>
       <c r="F32" t="str">
         <v>Sdd</v>
       </c>
       <c r="G32" t="str">
-        <v>In route</v>
-      </c>
-      <c r="H32" s="1">
-        <v>46058.60795658565</v>
+        <v>Created</v>
       </c>
       <c r="K32" t="str">
         <v>ORN1</v>
       </c>
       <c r="L32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N32" t="str">
-        <v>מבצע קדש 58, רמת גן, ישראל</v>
+        <v>משה לוי 10, ראשון לציון, ישראל</v>
       </c>
       <c r="O32" t="str">
-        <v>בני ברק</v>
+        <v>ראשון לציון</v>
       </c>
       <c r="P32" t="str">
-        <v>10:30</v>
+        <v>14:00</v>
       </c>
       <c r="Q32" t="str">
-        <v>10:30-16:00</v>
+        <v>14:00-18:00</v>
       </c>
       <c r="R32" t="str">
-        <v>אייבורי מחשבים בע"מ</v>
+        <v>KSP</v>
       </c>
       <c r="S32" t="str">
-        <v>0504731359</v>
+        <v>0504735458</v>
       </c>
       <c r="T32" t="str">
-        <v>דוד אלעזר 9, אור יהודה, ישראל</v>
+        <v>החרצית 13 ראשון לציון ראשון לציון ישראל</v>
       </c>
       <c r="U32" t="str">
-        <v>אור יהודה</v>
+        <v>ראשון לציון</v>
       </c>
       <c r="V32" t="str">
-        <v>10:30</v>
+        <v>14:00</v>
       </c>
       <c r="W32" t="str">
-        <v>10:30-16:00</v>
+        <v>14:00-18:00</v>
       </c>
       <c r="X32" t="str">
-        <v>ארואטי סיון</v>
+        <v>אייל לואיג'י</v>
       </c>
       <c r="Y32" t="str">
-        <v>0522586728</v>
+        <v>0547544315</v>
       </c>
       <c r="AA32" t="str">
-        <v>Pack ID: D724026779</v>
-      </c>
-      <c r="AB32">
-        <v>716603</v>
+        <v>Pack ID: 21112558</v>
       </c>
       <c r="AC32" t="str">
-        <v>VP3 VD0 9542529</v>
+        <v>VP3 VD0 2023095</v>
       </c>
       <c r="AD32" t="str">
-        <v>Small</v>
+        <v>Envelope</v>
       </c>
       <c r="AE32" t="str">
         <v>Autotest</v>
@@ -3485,83 +3101,71 @@
       </c>
       <c r="AI32" t="str">
         <v>0506664422</v>
-      </c>
-      <c r="AP32" t="str">
-        <v>rescheduled,e2m,try1</v>
-      </c>
-      <c r="AQ32" s="1">
-        <v>46058.60795658565</v>
       </c>
     </row>
     <row r="33">
       <c r="A33">
-        <v>5413113</v>
+        <v>5414839</v>
       </c>
       <c r="D33" s="1">
-        <v>46057.841768252314</v>
+        <v>46065.33722796296</v>
       </c>
       <c r="E33" s="1">
-        <v>46058.4375</v>
+        <v>46065.583333333336</v>
       </c>
       <c r="F33" t="str">
         <v>Sdd</v>
       </c>
       <c r="G33" t="str">
-        <v>In route</v>
-      </c>
-      <c r="H33" s="1">
-        <v>46058.60779274305</v>
+        <v>Created</v>
       </c>
       <c r="K33" t="str">
         <v>ORN1</v>
       </c>
       <c r="L33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N33" t="str">
-        <v>הסדנה 5 פתח תקווה ישראל</v>
+        <v>שדרות מלכי ישראל 178, קרית גת, ישראל</v>
       </c>
       <c r="O33" t="str">
-        <v>פתח תקווה</v>
+        <v>קרית גת</v>
       </c>
       <c r="P33" t="str">
-        <v>10:30</v>
+        <v>14:00</v>
       </c>
       <c r="Q33" t="str">
-        <v>10:30-16:00</v>
+        <v>14:00-18:00</v>
       </c>
       <c r="R33" t="str">
-        <v>ROY CHOCOLATE</v>
+        <v>KSP</v>
       </c>
       <c r="S33" t="str">
-        <v>0504326000</v>
+        <v>0504811993</v>
       </c>
       <c r="T33" t="str">
-        <v>אריאל שרון 4 גבעתיים, ישראל</v>
+        <v>אסא 26 קרית גת קרית גת ישראל</v>
       </c>
       <c r="U33" t="str">
-        <v>גבעתיים</v>
+        <v>קרית גת</v>
       </c>
       <c r="V33" t="str">
-        <v>10:30</v>
+        <v>14:00</v>
       </c>
       <c r="W33" t="str">
-        <v>10:30-16:00</v>
+        <v>14:00-18:00</v>
       </c>
       <c r="X33" t="str">
-        <v>ירדן אהרן</v>
+        <v>שירלי כהן</v>
       </c>
       <c r="Y33" t="str">
-        <v>0547757426</v>
+        <v>0523032248</v>
       </c>
       <c r="AA33" t="str">
-        <v>Pack ID: P33463</v>
-      </c>
-      <c r="AB33">
-        <v>716762</v>
+        <v>Pack ID: 21001117</v>
       </c>
       <c r="AC33" t="str">
-        <v>VP3 VD1 6743704</v>
+        <v>VP3 VD1 3109593</v>
       </c>
       <c r="AD33" t="str">
         <v>Small</v>
@@ -3581,82 +3185,70 @@
       <c r="AI33" t="str">
         <v>0506664422</v>
       </c>
-      <c r="AP33" t="str">
-        <v>rescheduled,e2m,try1</v>
-      </c>
-      <c r="AQ33" s="1">
-        <v>46058.60779274305</v>
-      </c>
     </row>
     <row r="34">
       <c r="A34">
-        <v>5413112</v>
+        <v>5414838</v>
       </c>
       <c r="D34" s="1">
-        <v>46057.84176153935</v>
+        <v>46065.33721297454</v>
       </c>
       <c r="E34" s="1">
-        <v>46058.4375</v>
+        <v>46065.583333333336</v>
       </c>
       <c r="F34" t="str">
         <v>Sdd</v>
       </c>
       <c r="G34" t="str">
-        <v>In route</v>
-      </c>
-      <c r="H34" s="1">
-        <v>46058.60760658565</v>
+        <v>Created</v>
       </c>
       <c r="K34" t="str">
         <v>ORN1</v>
       </c>
       <c r="L34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N34" t="str">
-        <v>בר כוכבא 23, פתח תקווה, ישראל</v>
+        <v>Ksp, דוד שמעוני 49, חדרה, ישראל</v>
       </c>
       <c r="O34" t="str">
-        <v>פתח תקווה</v>
+        <v>חדרה</v>
       </c>
       <c r="P34" t="str">
-        <v>10:30</v>
+        <v>14:00</v>
       </c>
       <c r="Q34" t="str">
-        <v>10:30-16:00</v>
+        <v>14:00-18:00</v>
       </c>
       <c r="R34" t="str">
-        <v>מיתוג מפיקים רעיונות</v>
+        <v>KSP</v>
       </c>
       <c r="S34" t="str">
-        <v>0504604233</v>
+        <v>0504747685</v>
       </c>
       <c r="T34" t="str">
-        <v>דליה רביקוביץ 1, ראש העין, ישראל</v>
+        <v>עזרא 96 פרדס חנה-כרכור פרדס חנה-כרכור ישראל</v>
       </c>
       <c r="U34" t="str">
-        <v>ראש העין</v>
+        <v>פרדס חנה כרכור</v>
       </c>
       <c r="V34" t="str">
-        <v>10:30</v>
+        <v>14:00</v>
       </c>
       <c r="W34" t="str">
-        <v>10:30-16:00</v>
+        <v>14:00-18:00</v>
       </c>
       <c r="X34" t="str">
-        <v>מאי מותג</v>
+        <v>איתי גדז'</v>
       </c>
       <c r="Y34" t="str">
-        <v>0505782438</v>
+        <v>0529507941</v>
       </c>
       <c r="AA34" t="str">
-        <v>Pack ID: GPP88CED49</v>
-      </c>
-      <c r="AB34">
-        <v>716634</v>
+        <v>Pack ID: 21089959</v>
       </c>
       <c r="AC34" t="str">
-        <v>VP3 VD0 1958362</v>
+        <v>VP3 VD0 9487594</v>
       </c>
       <c r="AD34" t="str">
         <v>Envelope</v>
@@ -3676,85 +3268,73 @@
       <c r="AI34" t="str">
         <v>0506664422</v>
       </c>
-      <c r="AP34" t="str">
-        <v>rescheduled,e2m,try1</v>
-      </c>
-      <c r="AQ34" s="1">
-        <v>46058.60760658565</v>
-      </c>
     </row>
     <row r="35">
       <c r="A35">
-        <v>5413111</v>
+        <v>5414837</v>
       </c>
       <c r="D35" s="1">
-        <v>46057.84175496528</v>
+        <v>46065.3372024537</v>
       </c>
       <c r="E35" s="1">
-        <v>46058.4375</v>
+        <v>46065.583333333336</v>
       </c>
       <c r="F35" t="str">
         <v>Sdd</v>
       </c>
       <c r="G35" t="str">
-        <v>In route</v>
-      </c>
-      <c r="H35" s="1">
-        <v>46058.607867743056</v>
+        <v>Created</v>
       </c>
       <c r="K35" t="str">
         <v>ORN1</v>
       </c>
       <c r="L35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N35" t="str">
-        <v>יוניצמן 21, תל אביב-יפו, ישראל</v>
+        <v>תוצרת הארץ 3, פתח תקווה, ישראל</v>
       </c>
       <c r="O35" t="str">
-        <v>תל אביב-יפו</v>
+        <v>פתח תקווה</v>
       </c>
       <c r="P35" t="str">
-        <v>10:30</v>
+        <v>14:00</v>
       </c>
       <c r="Q35" t="str">
-        <v>10:30-16:00</v>
+        <v>14:00-18:00</v>
       </c>
       <c r="R35" t="str">
-        <v>אושרת לוי</v>
+        <v>KSP</v>
       </c>
       <c r="S35" t="str">
-        <v>0504452862</v>
+        <v>0504199210</v>
       </c>
       <c r="T35" t="str">
-        <v>נח מוזס 2, ראשון לציון, ישראל</v>
+        <v>נהר הירדן 23 קרית אונו קרית אונו ישראל</v>
       </c>
       <c r="U35" t="str">
-        <v>ראשון לציון</v>
+        <v>קרית אונו</v>
       </c>
       <c r="V35" t="str">
-        <v>10:30</v>
+        <v>14:00</v>
       </c>
       <c r="W35" t="str">
-        <v>10:30-16:00</v>
+        <v>14:00-18:00</v>
       </c>
       <c r="X35" t="str">
-        <v>חדוה</v>
+        <v>דנה יכימוביץ</v>
       </c>
       <c r="Y35" t="str">
-        <v>0546770127</v>
+        <v>0502136160</v>
       </c>
       <c r="AA35" t="str">
-        <v>Pack ID: GP12Q6D9WT</v>
-      </c>
-      <c r="AB35">
-        <v>716800</v>
+        <v>Pack ID: 21077088</v>
       </c>
       <c r="AC35" t="str">
-        <v>VP3 VD1 8426645</v>
+        <v>VP3 VD1 3086260</v>
       </c>
       <c r="AD35" t="str">
-        <v>Envelope</v>
+        <v>Small</v>
       </c>
       <c r="AE35" t="str">
         <v>Autotest</v>
@@ -3770,83 +3350,71 @@
       </c>
       <c r="AI35" t="str">
         <v>0506664422</v>
-      </c>
-      <c r="AP35" t="str">
-        <v>rescheduled,e2m,try1</v>
-      </c>
-      <c r="AQ35" s="1">
-        <v>46058.607867743056</v>
       </c>
     </row>
     <row r="36">
       <c r="A36">
-        <v>5413110</v>
+        <v>5414836</v>
       </c>
       <c r="D36" s="1">
-        <v>46057.84174840278</v>
+        <v>46065.33719148148</v>
       </c>
       <c r="E36" s="1">
-        <v>46058.4375</v>
+        <v>46065.583333333336</v>
       </c>
       <c r="F36" t="str">
         <v>Sdd</v>
       </c>
       <c r="G36" t="str">
-        <v>In route</v>
-      </c>
-      <c r="H36" s="1">
-        <v>46058.607862268516</v>
+        <v>Created</v>
       </c>
       <c r="K36" t="str">
         <v>ORN1</v>
       </c>
       <c r="L36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N36" t="str">
-        <v>החרושת, חיפה, ישראל</v>
+        <v>דרך מנחם בגין 144, תל אביב-יפו, ישראל</v>
       </c>
       <c r="O36" t="str">
-        <v>חיפה</v>
+        <v>תל אביב-יפו</v>
       </c>
       <c r="P36" t="str">
-        <v>10:30</v>
+        <v>14:00</v>
       </c>
       <c r="Q36" t="str">
-        <v>10:30-16:00</v>
+        <v>14:00-18:00</v>
       </c>
       <c r="R36" t="str">
-        <v>אייבורי מחשבים בע"מ</v>
+        <v>עילית הניהול העסקי והפיננסי</v>
       </c>
       <c r="S36" t="str">
-        <v>0504555593</v>
+        <v>0504744949</v>
       </c>
       <c r="T36" t="str">
-        <v>וייצמן 2, קרית אתא, ישראל</v>
+        <v>רחוב אבן גבירול 68, תל אביב-יפו, ישראל</v>
       </c>
       <c r="U36" t="str">
-        <v>קרית אתא</v>
+        <v>תל אביב-יפו</v>
       </c>
       <c r="V36" t="str">
-        <v>10:30</v>
+        <v>14:00</v>
       </c>
       <c r="W36" t="str">
-        <v>10:30-16:00</v>
+        <v>14:00-18:00</v>
       </c>
       <c r="X36" t="str">
-        <v>צרפתי אורן</v>
+        <v>אלון</v>
       </c>
       <c r="Y36" t="str">
-        <v>0546220133</v>
+        <v>0526205010</v>
       </c>
       <c r="AA36" t="str">
-        <v>Pack ID: D724027864</v>
-      </c>
-      <c r="AB36">
-        <v>716795</v>
+        <v>Pack ID: GPLKJ46LFV</v>
       </c>
       <c r="AC36" t="str">
-        <v>VP3 VD0 9222779</v>
+        <v>VP3 VD0 4229886</v>
       </c>
       <c r="AD36" t="str">
         <v>Medium</v>
@@ -3866,85 +3434,73 @@
       <c r="AI36" t="str">
         <v>0506664422</v>
       </c>
-      <c r="AP36" t="str">
-        <v>rescheduled,e2m,try1</v>
-      </c>
-      <c r="AQ36" s="1">
-        <v>46058.607862268516</v>
-      </c>
     </row>
     <row r="37">
       <c r="A37">
-        <v>5413109</v>
+        <v>5414835</v>
       </c>
       <c r="D37" s="1">
-        <v>46057.84174203704</v>
+        <v>46065.337181145835</v>
       </c>
       <c r="E37" s="1">
-        <v>46058.4375</v>
+        <v>46065.583333333336</v>
       </c>
       <c r="F37" t="str">
         <v>Sdd</v>
       </c>
       <c r="G37" t="str">
-        <v>In route</v>
-      </c>
-      <c r="H37" s="1">
-        <v>46058.60760979167</v>
+        <v>Created</v>
       </c>
       <c r="K37" t="str">
         <v>ORN1</v>
       </c>
       <c r="L37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N37" t="str">
-        <v>גאנט, דרך יצחק רבין, גבעתיים, ישראל</v>
+        <v>יגאל אלון 98, תל אביב יפו, ישראל</v>
       </c>
       <c r="O37" t="str">
-        <v>גבעתיים</v>
+        <v>תל אביב-יפו</v>
       </c>
       <c r="P37" t="str">
-        <v>10:30</v>
+        <v>14:00</v>
       </c>
       <c r="Q37" t="str">
-        <v>10:30-16:00</v>
+        <v>14:00-18:00</v>
       </c>
       <c r="R37" t="str">
-        <v>גולדבר בעמ</v>
+        <v>גולן טלקום בע"מ</v>
       </c>
       <c r="S37" t="str">
-        <v>0504558113</v>
+        <v>0504923238</v>
       </c>
       <c r="T37" t="str">
-        <v>הר דפנה 6, סביון, ישראל</v>
+        <v>פרישמן 46, תל אביב-יפו, ישראל</v>
       </c>
       <c r="U37" t="str">
-        <v>סביון</v>
+        <v>תל אביב-יפו</v>
       </c>
       <c r="V37" t="str">
-        <v>10:30</v>
+        <v>14:00</v>
       </c>
       <c r="W37" t="str">
-        <v>10:30-16:00</v>
+        <v>14:00-18:00</v>
       </c>
       <c r="X37" t="str">
-        <v>מיכל</v>
+        <v>אבישי</v>
       </c>
       <c r="Y37" t="str">
-        <v>0505633019</v>
+        <v>0537086886</v>
       </c>
       <c r="AA37" t="str">
-        <v>Pack ID: GPNIJBE9LL</v>
-      </c>
-      <c r="AB37">
-        <v>716636</v>
+        <v>Pack ID: 6942471</v>
       </c>
       <c r="AC37" t="str">
-        <v>VP3 VD1 9253546</v>
+        <v>VP3 VD1 2417640</v>
       </c>
       <c r="AD37" t="str">
-        <v>Small</v>
+        <v>Envelope</v>
       </c>
       <c r="AE37" t="str">
         <v>Autotest</v>
@@ -3960,86 +3516,74 @@
       </c>
       <c r="AI37" t="str">
         <v>0506664422</v>
-      </c>
-      <c r="AP37" t="str">
-        <v>rescheduled,e2m,try1</v>
-      </c>
-      <c r="AQ37" s="1">
-        <v>46058.60760979167</v>
       </c>
     </row>
     <row r="38">
       <c r="A38">
-        <v>5413108</v>
+        <v>5414834</v>
       </c>
       <c r="D38" s="1">
-        <v>46057.84173541667</v>
+        <v>46065.337170590275</v>
       </c>
       <c r="E38" s="1">
-        <v>46058.4375</v>
+        <v>46065.583333333336</v>
       </c>
       <c r="F38" t="str">
         <v>Sdd</v>
       </c>
       <c r="G38" t="str">
-        <v>In route</v>
-      </c>
-      <c r="H38" s="1">
-        <v>46058.60769340278</v>
+        <v>Created</v>
       </c>
       <c r="K38" t="str">
         <v>ORN1</v>
       </c>
       <c r="L38">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N38" t="str">
-        <v>בניין פנורמה, דרך בן צבי, תל אביב-יפו, ישראל</v>
+        <v>יפה נוף 64, קרית אונו, ישראל</v>
       </c>
       <c r="O38" t="str">
+        <v>קרית אונו</v>
+      </c>
+      <c r="P38" t="str">
+        <v>14:00</v>
+      </c>
+      <c r="Q38" t="str">
+        <v>14:00-18:00</v>
+      </c>
+      <c r="R38" t="str">
+        <v>עו"ד רחל שחר</v>
+      </c>
+      <c r="S38" t="str">
+        <v>0504633691</v>
+      </c>
+      <c r="T38" t="str">
+        <v>דרך מנחם בגין 132, תל אביב-יפו, ישראל</v>
+      </c>
+      <c r="U38" t="str">
         <v>תל אביב-יפו</v>
       </c>
-      <c r="P38" t="str">
-        <v>10:30</v>
-      </c>
-      <c r="Q38" t="str">
-        <v>10:30-16:00</v>
-      </c>
-      <c r="R38" t="str">
-        <v>תודהש בעמ</v>
-      </c>
-      <c r="S38" t="str">
-        <v>0504146231</v>
-      </c>
-      <c r="T38" t="str">
-        <v>החרושת 3, רמת השרון, ישראל</v>
-      </c>
-      <c r="U38" t="str">
-        <v>רמת השרון</v>
-      </c>
       <c r="V38" t="str">
-        <v>10:30</v>
+        <v>14:00</v>
       </c>
       <c r="W38" t="str">
-        <v>10:30-16:00</v>
+        <v>14:00-18:00</v>
       </c>
       <c r="X38" t="str">
-        <v>גידי</v>
+        <v>יובל</v>
       </c>
       <c r="Y38" t="str">
-        <v>0526838731</v>
+        <v>0528664734</v>
       </c>
       <c r="AA38" t="str">
-        <v>Pack ID: TODASHE</v>
-      </c>
-      <c r="AB38">
-        <v>716686</v>
+        <v>Pack ID: GP4S2CC8ZU</v>
       </c>
       <c r="AC38" t="str">
-        <v>VP3 VD0 4155964</v>
+        <v>VP3 VD0 4060834</v>
       </c>
       <c r="AD38" t="str">
-        <v>Small</v>
+        <v>Envelope</v>
       </c>
       <c r="AE38" t="str">
         <v>Autotest</v>
@@ -4055,86 +3599,74 @@
       </c>
       <c r="AI38" t="str">
         <v>0506664422</v>
-      </c>
-      <c r="AP38" t="str">
-        <v>rescheduled,e2m,try1</v>
-      </c>
-      <c r="AQ38" s="1">
-        <v>46058.60769340278</v>
       </c>
     </row>
     <row r="39">
       <c r="A39">
-        <v>5413107</v>
+        <v>5414833</v>
       </c>
       <c r="D39" s="1">
-        <v>46057.84172167824</v>
+        <v>46065.337145324076</v>
       </c>
       <c r="E39" s="1">
-        <v>46058.4375</v>
+        <v>46065.583333333336</v>
       </c>
       <c r="F39" t="str">
         <v>Sdd</v>
       </c>
       <c r="G39" t="str">
-        <v>In route</v>
-      </c>
-      <c r="H39" s="1">
-        <v>46058.607560069446</v>
+        <v>Created</v>
       </c>
       <c r="K39" t="str">
         <v>ORN1</v>
       </c>
       <c r="L39">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N39" t="str">
-        <v>תוצרת הארץ 3, פתח תקווה, ישראל</v>
+        <v>הבנאי 22, חולון, ישראל</v>
       </c>
       <c r="O39" t="str">
-        <v>פתח תקווה</v>
+        <v>חולון</v>
       </c>
       <c r="P39" t="str">
-        <v>10:30</v>
+        <v>14:00</v>
       </c>
       <c r="Q39" t="str">
-        <v>10:30-16:00</v>
+        <v>14:00-18:00</v>
       </c>
       <c r="R39" t="str">
-        <v>KSP</v>
+        <v>גולדבר בעמ</v>
       </c>
       <c r="S39" t="str">
-        <v>0504867713</v>
+        <v>0504750890</v>
       </c>
       <c r="T39" t="str">
-        <v>סוטין חיים 4 פתח תקווה פתח תקווה ישראל</v>
+        <v>הר דפנה 6, סביון, ישראל</v>
       </c>
       <c r="U39" t="str">
-        <v>פתח תקווה</v>
+        <v>סביון</v>
       </c>
       <c r="V39" t="str">
-        <v>10:30</v>
+        <v>14:00</v>
       </c>
       <c r="W39" t="str">
-        <v>10:30-16:00</v>
+        <v>14:00-18:00</v>
       </c>
       <c r="X39" t="str">
-        <v>אביב איתני</v>
+        <v>מיכל שרון</v>
       </c>
       <c r="Y39" t="str">
-        <v>0522210147</v>
+        <v>0505633019</v>
       </c>
       <c r="AA39" t="str">
-        <v>Pack ID: 21099777</v>
-      </c>
-      <c r="AB39">
-        <v>716616</v>
+        <v>Pack ID: GPWQITO7IR</v>
       </c>
       <c r="AC39" t="str">
-        <v>VP3 VD1 4016060</v>
+        <v>VP3 VD1 4014342</v>
       </c>
       <c r="AD39" t="str">
-        <v>Envelope</v>
+        <v>Small</v>
       </c>
       <c r="AE39" t="str">
         <v>Autotest</v>
@@ -4150,86 +3682,74 @@
       </c>
       <c r="AI39" t="str">
         <v>0506664422</v>
-      </c>
-      <c r="AP39" t="str">
-        <v>rescheduled,e2m,try1</v>
-      </c>
-      <c r="AQ39" s="1">
-        <v>46058.607560069446</v>
       </c>
     </row>
     <row r="40">
       <c r="A40">
-        <v>5413106</v>
+        <v>5414832</v>
       </c>
       <c r="D40" s="1">
-        <v>46057.84171508102</v>
+        <v>46065.33713071759</v>
       </c>
       <c r="E40" s="1">
-        <v>46058.4375</v>
+        <v>46065.583333333336</v>
       </c>
       <c r="F40" t="str">
         <v>Sdd</v>
       </c>
       <c r="G40" t="str">
-        <v>In route</v>
-      </c>
-      <c r="H40" s="1">
-        <v>46058.6075575</v>
+        <v>Created</v>
       </c>
       <c r="K40" t="str">
         <v>ORN1</v>
       </c>
       <c r="L40">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N40" t="str">
-        <v xml:space="preserve"> סניף נתניה (ק.השרון), דרך דגניה 47, נתניה, 4237675, ישראל</v>
+        <v>דרך מנחם בגין 144, תל אביב-יפו, ישראל</v>
       </c>
       <c r="O40" t="str">
-        <v>נתניה</v>
+        <v>תל אביב-יפו</v>
       </c>
       <c r="P40" t="str">
-        <v>10:30</v>
+        <v>14:00</v>
       </c>
       <c r="Q40" t="str">
-        <v>10:30-16:00</v>
+        <v>14:00-18:00</v>
       </c>
       <c r="R40" t="str">
-        <v>KSP</v>
+        <v>עילית הניהול העסקי והפיננסי</v>
       </c>
       <c r="S40" t="str">
-        <v>0504139761</v>
+        <v>0504293472</v>
       </c>
       <c r="T40" t="str">
-        <v>הצבר 14 קדימה-צורן קדימה-צורן ישראל</v>
+        <v>בלוך 16, גבעתיים, ישראל</v>
       </c>
       <c r="U40" t="str">
-        <v>קדימה צורן</v>
+        <v>גבעתיים</v>
       </c>
       <c r="V40" t="str">
-        <v>10:30</v>
+        <v>14:00</v>
       </c>
       <c r="W40" t="str">
-        <v>10:30-16:00</v>
+        <v>14:00-18:00</v>
       </c>
       <c r="X40" t="str">
-        <v>שרון אור חיים</v>
+        <v>רות</v>
       </c>
       <c r="Y40" t="str">
-        <v>0506584888</v>
+        <v>0529464726</v>
       </c>
       <c r="AA40" t="str">
-        <v>Pack ID: 21091255</v>
-      </c>
-      <c r="AB40">
-        <v>716615</v>
+        <v>Pack ID: GP70W6H0B9</v>
       </c>
       <c r="AC40" t="str">
-        <v>VP3 VD0 3638323</v>
+        <v>VP3 VD0 1241645</v>
       </c>
       <c r="AD40" t="str">
-        <v>Large</v>
+        <v>Medium</v>
       </c>
       <c r="AE40" t="str">
         <v>Autotest</v>
@@ -4245,86 +3765,74 @@
       </c>
       <c r="AI40" t="str">
         <v>0506664422</v>
-      </c>
-      <c r="AP40" t="str">
-        <v>rescheduled,e2m,try1</v>
-      </c>
-      <c r="AQ40" s="1">
-        <v>46058.6075575</v>
       </c>
     </row>
     <row r="41">
       <c r="A41">
-        <v>5413105</v>
+        <v>5414831</v>
       </c>
       <c r="D41" s="1">
-        <v>46057.841666238426</v>
+        <v>46065.33712015046</v>
       </c>
       <c r="E41" s="1">
-        <v>46058.4375</v>
+        <v>46065.583333333336</v>
       </c>
       <c r="F41" t="str">
         <v>Sdd</v>
       </c>
       <c r="G41" t="str">
-        <v>In route</v>
-      </c>
-      <c r="H41" s="1">
-        <v>46058.60757988426</v>
+        <v>Created</v>
       </c>
       <c r="K41" t="str">
         <v>ORN1</v>
       </c>
       <c r="L41">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N41" t="str">
-        <v>מסילת ישרים 76, תל אביב-יפו, ישראל</v>
+        <v>משה לוי 10, ראשון לציון, ישראל</v>
       </c>
       <c r="O41" t="str">
-        <v>תל אביב-יפו</v>
+        <v>ראשון לציון</v>
       </c>
       <c r="P41" t="str">
-        <v>10:30</v>
+        <v>14:00</v>
       </c>
       <c r="Q41" t="str">
-        <v>10:30-16:00</v>
+        <v>14:00-18:00</v>
       </c>
       <c r="R41" t="str">
-        <v>אסופה בע"מ</v>
+        <v>KSP</v>
       </c>
       <c r="S41" t="str">
-        <v>0504956808</v>
+        <v>0504242928</v>
       </c>
       <c r="T41" t="str">
-        <v>מיכאל 12, רמת גן, ישראל</v>
+        <v>צפת 11 חולון חולון ישראל</v>
       </c>
       <c r="U41" t="str">
-        <v>רמת גן</v>
+        <v>חולון</v>
       </c>
       <c r="V41" t="str">
-        <v>10:30</v>
+        <v>14:00</v>
       </c>
       <c r="W41" t="str">
-        <v>10:30-16:00</v>
+        <v>14:00-18:00</v>
       </c>
       <c r="X41" t="str">
-        <v>מור אתיאל</v>
+        <v>בר אשר</v>
       </c>
       <c r="Y41" t="str">
-        <v>0526585465</v>
+        <v>0523005888</v>
       </c>
       <c r="AA41" t="str">
-        <v>Pack ID: GP3ON1STAX</v>
-      </c>
-      <c r="AB41">
-        <v>716623</v>
+        <v>Pack ID: 21055561</v>
       </c>
       <c r="AC41" t="str">
-        <v>VP3 VD1 7169472</v>
+        <v>VP3 VD1 6800511</v>
       </c>
       <c r="AD41" t="str">
-        <v>Medium</v>
+        <v>Small</v>
       </c>
       <c r="AE41" t="str">
         <v>Autotest</v>
@@ -4340,83 +3848,71 @@
       </c>
       <c r="AI41" t="str">
         <v>0506664422</v>
-      </c>
-      <c r="AP41" t="str">
-        <v>rescheduled,e2m,try1</v>
-      </c>
-      <c r="AQ41" s="1">
-        <v>46058.60757988426</v>
       </c>
     </row>
     <row r="42">
       <c r="A42">
-        <v>5413104</v>
+        <v>5414830</v>
       </c>
       <c r="D42" s="1">
-        <v>46057.841659722224</v>
+        <v>46065.33710914352</v>
       </c>
       <c r="E42" s="1">
-        <v>46058.4375</v>
+        <v>46065.583333333336</v>
       </c>
       <c r="F42" t="str">
         <v>Sdd</v>
       </c>
       <c r="G42" t="str">
-        <v>In route</v>
-      </c>
-      <c r="H42" s="1">
-        <v>46058.6075575</v>
+        <v>Created</v>
       </c>
       <c r="K42" t="str">
         <v>ORN1</v>
       </c>
       <c r="L42">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N42" t="str">
-        <v>נצבא סנטר פולג, מתחם נצבא, שדרות גיבורי ישראל 5, נתניה, ישראל</v>
+        <v>המסגר 5, נס ציונה, ישראל</v>
       </c>
       <c r="O42" t="str">
-        <v>נתניה</v>
+        <v>נס ציונה</v>
       </c>
       <c r="P42" t="str">
-        <v>10:30</v>
+        <v>14:00</v>
       </c>
       <c r="Q42" t="str">
-        <v>10:30-16:00</v>
+        <v>14:00-18:00</v>
       </c>
       <c r="R42" t="str">
-        <v>אייבורי מחשבים בע"מ</v>
+        <v>לצה</v>
       </c>
       <c r="S42" t="str">
-        <v>0504697276</v>
+        <v>0504709488</v>
       </c>
       <c r="T42" t="str">
-        <v>השמחה 24, כפר יונה, ישראל</v>
+        <v>השריון 25, נס ציונה, ישראל</v>
       </c>
       <c r="U42" t="str">
-        <v>כפר יונה</v>
+        <v>נס ציונה</v>
       </c>
       <c r="V42" t="str">
-        <v>10:30</v>
+        <v>14:00</v>
       </c>
       <c r="W42" t="str">
-        <v>10:30-16:00</v>
+        <v>14:00-18:00</v>
       </c>
       <c r="X42" t="str">
-        <v>קוטלר אורלן</v>
+        <v>אפרת פוקסון</v>
       </c>
       <c r="Y42" t="str">
-        <v>0502712259</v>
+        <v>0528003200</v>
       </c>
       <c r="AA42" t="str">
-        <v>Pack ID: D724027166</v>
-      </c>
-      <c r="AB42">
-        <v>716615</v>
+        <v>Pack ID: GP8P7Z08BA</v>
       </c>
       <c r="AC42" t="str">
-        <v>VP3 VD0 5486898</v>
+        <v>VP3 VD0 1828532</v>
       </c>
       <c r="AD42" t="str">
         <v>Medium</v>
@@ -4436,85 +3932,73 @@
       <c r="AI42" t="str">
         <v>0506664422</v>
       </c>
-      <c r="AP42" t="str">
-        <v>rescheduled,e2m,try1</v>
-      </c>
-      <c r="AQ42" s="1">
-        <v>46058.6075575</v>
-      </c>
     </row>
     <row r="43">
       <c r="A43">
-        <v>5413103</v>
+        <v>5414829</v>
       </c>
       <c r="D43" s="1">
-        <v>46057.84165253472</v>
+        <v>46065.33709230324</v>
       </c>
       <c r="E43" s="1">
-        <v>46058.4375</v>
+        <v>46065.583333333336</v>
       </c>
       <c r="F43" t="str">
         <v>Sdd</v>
       </c>
       <c r="G43" t="str">
-        <v>In route</v>
-      </c>
-      <c r="H43" s="1">
-        <v>46058.60760658565</v>
+        <v>Created</v>
       </c>
       <c r="K43" t="str">
         <v>ORN1</v>
       </c>
       <c r="L43">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N43" t="str">
-        <v>הסיבים 18, פתח תקווה, ישראל</v>
+        <v>אהרון בקר 8, תל אביב-יפו, ישראל</v>
       </c>
       <c r="O43" t="str">
-        <v>פתח תקווה</v>
+        <v>תל אביב-יפו</v>
       </c>
       <c r="P43" t="str">
-        <v>10:30</v>
+        <v>14:00</v>
       </c>
       <c r="Q43" t="str">
-        <v>10:30-16:00</v>
+        <v>14:00-18:00</v>
       </c>
       <c r="R43" t="str">
-        <v>אייבורי מחשבים בע"מ</v>
+        <v>KSP</v>
       </c>
       <c r="S43" t="str">
-        <v>0504951400</v>
+        <v>0504853821</v>
       </c>
       <c r="T43" t="str">
-        <v>רוטשילד 136, פתח תקווה, ישראל</v>
+        <v>ויצמן 6 תל אביב - יפו תל אביב - יפו ישראל</v>
       </c>
       <c r="U43" t="str">
-        <v>פתח תקווה</v>
+        <v>תל אביב-יפו</v>
       </c>
       <c r="V43" t="str">
-        <v>10:30</v>
+        <v>14:00</v>
       </c>
       <c r="W43" t="str">
-        <v>10:30-16:00</v>
+        <v>14:00-18:00</v>
       </c>
       <c r="X43" t="str">
-        <v>רוימישר רוזט בוקאי</v>
+        <v>מחמוד מחאגנה</v>
       </c>
       <c r="Y43" t="str">
-        <v>0546956563</v>
+        <v>0546532082</v>
       </c>
       <c r="AA43" t="str">
-        <v>Pack ID: D724028114</v>
-      </c>
-      <c r="AB43">
-        <v>716634</v>
+        <v>Pack ID: 21120827</v>
       </c>
       <c r="AC43" t="str">
-        <v>VP3 VD1 1717515</v>
+        <v>VP3 VD1 1080164</v>
       </c>
       <c r="AD43" t="str">
-        <v>Medium</v>
+        <v>Small</v>
       </c>
       <c r="AE43" t="str">
         <v>Autotest</v>
@@ -4530,86 +4014,74 @@
       </c>
       <c r="AI43" t="str">
         <v>0506664422</v>
-      </c>
-      <c r="AP43" t="str">
-        <v>rescheduled,e2m,try1</v>
-      </c>
-      <c r="AQ43" s="1">
-        <v>46058.60760658565</v>
       </c>
     </row>
     <row r="44">
       <c r="A44">
-        <v>5413102</v>
+        <v>5414828</v>
       </c>
       <c r="D44" s="1">
-        <v>46057.8416340625</v>
+        <v>46065.33705826389</v>
       </c>
       <c r="E44" s="1">
-        <v>46058.4375</v>
+        <v>46065.583333333336</v>
       </c>
       <c r="F44" t="str">
         <v>Sdd</v>
       </c>
       <c r="G44" t="str">
-        <v>In route</v>
-      </c>
-      <c r="H44" s="1">
-        <v>46058.60766717593</v>
+        <v>Created</v>
       </c>
       <c r="K44" t="str">
         <v>ORN1</v>
       </c>
       <c r="L44">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N44" t="str">
-        <v>הסיבים 18, פתח תקווה, ישראל</v>
+        <v>משה לוי 10, ראשון לציון, ישראל</v>
       </c>
       <c r="O44" t="str">
-        <v>פתח תקווה</v>
+        <v>ראשון לציון</v>
       </c>
       <c r="P44" t="str">
-        <v>10:30</v>
+        <v>14:00</v>
       </c>
       <c r="Q44" t="str">
-        <v>10:30-16:00</v>
+        <v>14:00-18:00</v>
       </c>
       <c r="R44" t="str">
-        <v>אייבורי מחשבים בע"מ</v>
+        <v>KSP</v>
       </c>
       <c r="S44" t="str">
-        <v>0504261322</v>
+        <v>0504422522</v>
       </c>
       <c r="T44" t="str">
-        <v>שטריקר 64, תל אביב-יפו, ישראל</v>
+        <v>התאנה 260, צפריה, ישראל</v>
       </c>
       <c r="U44" t="str">
-        <v>תל אביב-יפו</v>
+        <v>מועצה אזורית שדות דן</v>
       </c>
       <c r="V44" t="str">
-        <v>10:30</v>
+        <v>14:00</v>
       </c>
       <c r="W44" t="str">
-        <v>10:30-16:00</v>
+        <v>14:00-18:00</v>
       </c>
       <c r="X44" t="str">
-        <v>קרונברג מורן</v>
+        <v>יצחק כהנא</v>
       </c>
       <c r="Y44" t="str">
-        <v>0522295799</v>
+        <v>0584554708</v>
       </c>
       <c r="AA44" t="str">
-        <v>Pack ID: D724028656</v>
-      </c>
-      <c r="AB44">
-        <v>716668</v>
+        <v>Pack ID: 21090953</v>
       </c>
       <c r="AC44" t="str">
-        <v>VP3 VD0 6432388</v>
+        <v>VP3 VD0 8114140</v>
       </c>
       <c r="AD44" t="str">
-        <v>Medium</v>
+        <v>Envelope</v>
       </c>
       <c r="AE44" t="str">
         <v>Autotest</v>
@@ -4625,86 +4097,74 @@
       </c>
       <c r="AI44" t="str">
         <v>0506664422</v>
-      </c>
-      <c r="AP44" t="str">
-        <v>rescheduled,e2m,try1</v>
-      </c>
-      <c r="AQ44" s="1">
-        <v>46058.60766717593</v>
       </c>
     </row>
     <row r="45">
       <c r="A45">
-        <v>5413101</v>
+        <v>5414827</v>
       </c>
       <c r="D45" s="1">
-        <v>46057.84162515046</v>
+        <v>46065.337041886574</v>
       </c>
       <c r="E45" s="1">
-        <v>46058.4375</v>
+        <v>46065.583333333336</v>
       </c>
       <c r="F45" t="str">
         <v>Sdd</v>
       </c>
       <c r="G45" t="str">
-        <v>In route</v>
-      </c>
-      <c r="H45" s="1">
-        <v>46058.607900173614</v>
+        <v>Created</v>
       </c>
       <c r="K45" t="str">
         <v>ORN1</v>
       </c>
       <c r="L45">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N45" t="str">
-        <v>שלמה המלך 37, קרית אונו, ישראל</v>
+        <v>בכור שלום שטרית 10, תל אביב-יפו, ישראל</v>
       </c>
       <c r="O45" t="str">
-        <v>קרית אונו</v>
+        <v>תל אביב-יפו</v>
       </c>
       <c r="P45" t="str">
-        <v>10:30</v>
+        <v>14:00</v>
       </c>
       <c r="Q45" t="str">
-        <v>10:30-16:00</v>
+        <v>14:00-18:00</v>
       </c>
       <c r="R45" t="str">
         <v>KSP</v>
       </c>
       <c r="S45" t="str">
-        <v>0504725357</v>
+        <v>0504456508</v>
       </c>
       <c r="T45" t="str">
-        <v>איילת השחר 11 אור יהודה אור יהודה ישראל</v>
+        <v>אחד העם 16 , רמת גן רמת גן ישראל</v>
       </c>
       <c r="U45" t="str">
-        <v>אור יהודה</v>
+        <v>רמת גן</v>
       </c>
       <c r="V45" t="str">
-        <v>10:30</v>
+        <v>14:00</v>
       </c>
       <c r="W45" t="str">
-        <v>10:30-16:00</v>
+        <v>14:00-18:00</v>
       </c>
       <c r="X45" t="str">
-        <v>Isaac Darvish</v>
+        <v>אינסומניה אורי חבושי</v>
       </c>
       <c r="Y45" t="str">
-        <v>0547788385</v>
+        <v>0544634265</v>
       </c>
       <c r="AA45" t="str">
-        <v>Pack ID: 21092710</v>
-      </c>
-      <c r="AB45">
-        <v>716827</v>
+        <v>Pack ID: 21119780</v>
       </c>
       <c r="AC45" t="str">
-        <v>VP3 VD1 4141352</v>
+        <v>VP3 VD1 5399240</v>
       </c>
       <c r="AD45" t="str">
-        <v>Small</v>
+        <v>Medium</v>
       </c>
       <c r="AE45" t="str">
         <v>Autotest</v>
@@ -4720,86 +4180,74 @@
       </c>
       <c r="AI45" t="str">
         <v>0506664422</v>
-      </c>
-      <c r="AP45" t="str">
-        <v>rescheduled,e2m,try1</v>
-      </c>
-      <c r="AQ45" s="1">
-        <v>46058.607900173614</v>
       </c>
     </row>
     <row r="46">
       <c r="A46">
-        <v>5413100</v>
+        <v>5414826</v>
       </c>
       <c r="D46" s="1">
-        <v>46057.84161859954</v>
+        <v>46065.33703127315</v>
       </c>
       <c r="E46" s="1">
-        <v>46058.4375</v>
+        <v>46065.583333333336</v>
       </c>
       <c r="F46" t="str">
         <v>Sdd</v>
       </c>
       <c r="G46" t="str">
-        <v>In route</v>
-      </c>
-      <c r="H46" s="1">
-        <v>46058.60786564815</v>
+        <v>Created</v>
       </c>
       <c r="K46" t="str">
         <v>ORN1</v>
       </c>
       <c r="L46">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N46" t="str">
-        <v>דרך מנחם בגין 144, תל אביב-יפו, ישראל</v>
+        <v xml:space="preserve"> סניף תל אביב המסגר, המסגר 53, תל אביב יפו, 6721706, ישראל</v>
       </c>
       <c r="O46" t="str">
         <v>תל אביב-יפו</v>
       </c>
       <c r="P46" t="str">
-        <v>10:30</v>
+        <v>14:00</v>
       </c>
       <c r="Q46" t="str">
-        <v>10:30-16:00</v>
+        <v>14:00-18:00</v>
       </c>
       <c r="R46" t="str">
-        <v>עילית הניהול העסקי והפיננסי</v>
+        <v>KSP</v>
       </c>
       <c r="S46" t="str">
-        <v>0504664380</v>
+        <v>0504520557</v>
       </c>
       <c r="T46" t="str">
-        <v>דן שומרון 13, רמת גן, ישראל</v>
+        <v>אחד העם 14 רמת גן רמת גן ישראל</v>
       </c>
       <c r="U46" t="str">
         <v>רמת גן</v>
       </c>
       <c r="V46" t="str">
-        <v>10:30</v>
+        <v>14:00</v>
       </c>
       <c r="W46" t="str">
-        <v>10:30-16:00</v>
+        <v>14:00-18:00</v>
       </c>
       <c r="X46" t="str">
-        <v>מאיר</v>
+        <v>מיקי קיאנובסקי</v>
       </c>
       <c r="Y46" t="str">
-        <v>0505366918</v>
+        <v>0523339085</v>
       </c>
       <c r="AA46" t="str">
-        <v>Pack ID: GPE3VUD0QN</v>
-      </c>
-      <c r="AB46">
-        <v>716798</v>
+        <v>Pack ID: 21063207</v>
       </c>
       <c r="AC46" t="str">
-        <v>VP3 VD0 7969930</v>
+        <v>VP3 VD0 9133390</v>
       </c>
       <c r="AD46" t="str">
-        <v>Medium</v>
+        <v>Small</v>
       </c>
       <c r="AE46" t="str">
         <v>Autotest</v>
@@ -4815,38 +4263,29 @@
       </c>
       <c r="AI46" t="str">
         <v>0506664422</v>
-      </c>
-      <c r="AP46" t="str">
-        <v>rescheduled,e2m,try1</v>
-      </c>
-      <c r="AQ46" s="1">
-        <v>46058.60786564815</v>
       </c>
     </row>
     <row r="47">
       <c r="A47">
-        <v>5413099</v>
+        <v>5414825</v>
       </c>
       <c r="D47" s="1">
-        <v>46057.84161206018</v>
+        <v>46065.33702037037</v>
       </c>
       <c r="E47" s="1">
-        <v>46058.4375</v>
+        <v>46065.583333333336</v>
       </c>
       <c r="F47" t="str">
         <v>Sdd</v>
       </c>
       <c r="G47" t="str">
-        <v>In route</v>
-      </c>
-      <c r="H47" s="1">
-        <v>46058.60782793981</v>
+        <v>Created</v>
       </c>
       <c r="K47" t="str">
         <v>ORN1</v>
       </c>
       <c r="L47">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N47" t="str">
         <v>שלמה המלך 37, קרית אונו, ישראל</v>
@@ -4855,43 +4294,40 @@
         <v>קרית אונו</v>
       </c>
       <c r="P47" t="str">
-        <v>10:30</v>
+        <v>14:00</v>
       </c>
       <c r="Q47" t="str">
-        <v>10:30-16:00</v>
+        <v>14:00-18:00</v>
       </c>
       <c r="R47" t="str">
         <v>KSP</v>
       </c>
       <c r="S47" t="str">
-        <v>0504861249</v>
+        <v>0504136956</v>
       </c>
       <c r="T47" t="str">
-        <v>בית לחם 14 חולון חולון ישראל</v>
+        <v>יצחק זיקו גרציאני 4 תל אביב - יפו תל אביב - יפו ישראל</v>
       </c>
       <c r="U47" t="str">
-        <v>חולון</v>
+        <v>תל אביב-יפו</v>
       </c>
       <c r="V47" t="str">
-        <v>10:30</v>
+        <v>14:00</v>
       </c>
       <c r="W47" t="str">
-        <v>10:30-16:00</v>
+        <v>14:00-18:00</v>
       </c>
       <c r="X47" t="str">
-        <v>טימופיי קוציריאבצינקוב</v>
+        <v>יובל שמיר</v>
       </c>
       <c r="Y47" t="str">
-        <v>0547363797</v>
+        <v>0549983675</v>
       </c>
       <c r="AA47" t="str">
-        <v>Pack ID: 21085361</v>
-      </c>
-      <c r="AB47">
-        <v>716787</v>
+        <v>Pack ID: 21090478</v>
       </c>
       <c r="AC47" t="str">
-        <v>VP3 VD1 6591271</v>
+        <v>VP3 VD1 2172377</v>
       </c>
       <c r="AD47" t="str">
         <v>Small</v>
@@ -4911,82 +4347,70 @@
       <c r="AI47" t="str">
         <v>0506664422</v>
       </c>
-      <c r="AP47" t="str">
-        <v>rescheduled,e2m,try1</v>
-      </c>
-      <c r="AQ47" s="1">
-        <v>46058.60782793981</v>
-      </c>
     </row>
     <row r="48">
       <c r="A48">
-        <v>5413098</v>
+        <v>5414824</v>
       </c>
       <c r="D48" s="1">
-        <v>46057.84160526621</v>
+        <v>46065.33700966435</v>
       </c>
       <c r="E48" s="1">
-        <v>46058.4375</v>
+        <v>46065.583333333336</v>
       </c>
       <c r="F48" t="str">
         <v>Sdd</v>
       </c>
       <c r="G48" t="str">
-        <v>In route</v>
-      </c>
-      <c r="H48" s="1">
-        <v>46058.60772545139</v>
+        <v>Created</v>
       </c>
       <c r="K48" t="str">
         <v>ORN1</v>
       </c>
       <c r="L48">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N48" t="str">
-        <v>משה לוי 10, ראשון לציון, ישראל</v>
+        <v>בילו סנטר, ישראל</v>
       </c>
       <c r="O48" t="str">
-        <v>ראשון לציון</v>
+        <v>קרית עקרון</v>
       </c>
       <c r="P48" t="str">
-        <v>10:30</v>
+        <v>14:00</v>
       </c>
       <c r="Q48" t="str">
-        <v>10:30-16:00</v>
+        <v>14:00-18:00</v>
       </c>
       <c r="R48" t="str">
-        <v>KSP</v>
+        <v>באג</v>
       </c>
       <c r="S48" t="str">
-        <v>0504702188</v>
+        <v>0504297520</v>
       </c>
       <c r="T48" t="str">
-        <v>קראוזה 65 חולון חולון ישראל</v>
+        <v>משה פורר 10, רחובות, ישראל</v>
       </c>
       <c r="U48" t="str">
-        <v>חולון</v>
+        <v>רחובות</v>
       </c>
       <c r="V48" t="str">
-        <v>10:30</v>
+        <v>14:00</v>
       </c>
       <c r="W48" t="str">
-        <v>10:30-16:00</v>
+        <v>14:00-18:00</v>
       </c>
       <c r="X48" t="str">
-        <v>אלון גנץ</v>
+        <v>נטלי יופה</v>
       </c>
       <c r="Y48" t="str">
-        <v>0548031033</v>
+        <v>0544205242</v>
       </c>
       <c r="AA48" t="str">
-        <v>Pack ID: 21075401</v>
-      </c>
-      <c r="AB48">
-        <v>716710</v>
+        <v>Pack ID: 800912</v>
       </c>
       <c r="AC48" t="str">
-        <v>VP3 VD0 4977001</v>
+        <v>VP3 VD0 8890562</v>
       </c>
       <c r="AD48" t="str">
         <v>Medium</v>
@@ -5006,85 +4430,73 @@
       <c r="AI48" t="str">
         <v>0506664422</v>
       </c>
-      <c r="AP48" t="str">
-        <v>rescheduled,e2m,try1</v>
-      </c>
-      <c r="AQ48" s="1">
-        <v>46058.60772545139</v>
-      </c>
     </row>
     <row r="49">
       <c r="A49">
-        <v>5413097</v>
+        <v>5414823</v>
       </c>
       <c r="D49" s="1">
-        <v>46057.84159871528</v>
+        <v>46065.33699357639</v>
       </c>
       <c r="E49" s="1">
-        <v>46058.4375</v>
+        <v>46065.583333333336</v>
       </c>
       <c r="F49" t="str">
         <v>Sdd</v>
       </c>
       <c r="G49" t="str">
-        <v>In route</v>
-      </c>
-      <c r="H49" s="1">
-        <v>46058.60794592593</v>
+        <v>Created</v>
       </c>
       <c r="K49" t="str">
         <v>ORN1</v>
       </c>
       <c r="L49">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N49" t="str">
-        <v>הבושם 7, אשדוד ים, ישראל</v>
+        <v>יהודה 44, ירושלים, ישראל</v>
       </c>
       <c r="O49" t="str">
-        <v>אשדוד</v>
+        <v>ירושלים</v>
       </c>
       <c r="P49" t="str">
-        <v>10:30</v>
+        <v>14:00</v>
       </c>
       <c r="Q49" t="str">
-        <v>10:30-16:00</v>
+        <v>14:00-18:00</v>
       </c>
       <c r="R49" t="str">
-        <v>גולן טלקום בע"מ</v>
+        <v>שיווק ינאי</v>
       </c>
       <c r="S49" t="str">
-        <v>0504309250</v>
+        <v>0504118337</v>
       </c>
       <c r="T49" t="str">
-        <v>האדמו"ר מבעלזא 7, אשדוד, ישראל</v>
+        <v>בן לברט 9, ירושלים, ישראל</v>
       </c>
       <c r="U49" t="str">
-        <v>אשדוד</v>
+        <v>ירושלים</v>
       </c>
       <c r="V49" t="str">
-        <v>10:30</v>
+        <v>14:00</v>
       </c>
       <c r="W49" t="str">
-        <v>10:30-16:00</v>
+        <v>14:00-18:00</v>
       </c>
       <c r="X49" t="str">
-        <v>אייל סוויסה</v>
+        <v>קדמון מיכל</v>
       </c>
       <c r="Y49" t="str">
-        <v>0548596500</v>
+        <v>0528903627</v>
       </c>
       <c r="AA49" t="str">
-        <v>Pack ID: 5642906</v>
-      </c>
-      <c r="AB49">
-        <v>716383</v>
+        <v>Pack ID: GPQIF9VEVM</v>
       </c>
       <c r="AC49" t="str">
-        <v>VP3 VD1 2753618</v>
+        <v>VP3 VD1 1184855</v>
       </c>
       <c r="AD49" t="str">
-        <v>Envelope</v>
+        <v>Small</v>
       </c>
       <c r="AE49" t="str">
         <v>Autotest</v>
@@ -5100,83 +4512,71 @@
       </c>
       <c r="AI49" t="str">
         <v>0506664422</v>
-      </c>
-      <c r="AP49" t="str">
-        <v>rescheduled,e2m,try1</v>
-      </c>
-      <c r="AQ49" s="1">
-        <v>46058.60794592593</v>
       </c>
     </row>
     <row r="50">
       <c r="A50">
-        <v>5413096</v>
+        <v>5414822</v>
       </c>
       <c r="D50" s="1">
-        <v>46057.8415921412</v>
+        <v>46065.33698296297</v>
       </c>
       <c r="E50" s="1">
-        <v>46058.4375</v>
+        <v>46065.583333333336</v>
       </c>
       <c r="F50" t="str">
         <v>Sdd</v>
       </c>
       <c r="G50" t="str">
-        <v>In route</v>
-      </c>
-      <c r="H50" s="1">
-        <v>46058.60758616898</v>
+        <v>Created</v>
       </c>
       <c r="K50" t="str">
         <v>ORN1</v>
       </c>
       <c r="L50">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N50" t="str">
-        <v>הסיבים 18, פתח תקווה, ישראל</v>
+        <v>שלמה המלך 37, קרית אונו, ישראל</v>
       </c>
       <c r="O50" t="str">
-        <v>פתח תקווה</v>
+        <v>קרית אונו</v>
       </c>
       <c r="P50" t="str">
-        <v>10:30</v>
+        <v>14:00</v>
       </c>
       <c r="Q50" t="str">
-        <v>10:30-16:00</v>
+        <v>14:00-18:00</v>
       </c>
       <c r="R50" t="str">
-        <v>אייבורי מחשבים בע"מ</v>
+        <v>KSP</v>
       </c>
       <c r="S50" t="str">
-        <v>0504191724</v>
+        <v>0504524182</v>
       </c>
       <c r="T50" t="str">
-        <v>המכבים 3, הוד השרון, ישראל</v>
+        <v>בית לחם 14 חולון חולון ישראל</v>
       </c>
       <c r="U50" t="str">
-        <v>הוד השרון</v>
+        <v>חולון</v>
       </c>
       <c r="V50" t="str">
-        <v>10:30</v>
+        <v>14:00</v>
       </c>
       <c r="W50" t="str">
-        <v>10:30-16:00</v>
+        <v>14:00-18:00</v>
       </c>
       <c r="X50" t="str">
-        <v>פרידמן איתי</v>
+        <v>טימופיי קוציריאבצינקוב</v>
       </c>
       <c r="Y50" t="str">
-        <v>0547807487</v>
+        <v>0547363797</v>
       </c>
       <c r="AA50" t="str">
-        <v>Pack ID: D724027045</v>
-      </c>
-      <c r="AB50">
-        <v>716626</v>
+        <v>Pack ID: 21085361</v>
       </c>
       <c r="AC50" t="str">
-        <v>VP3 VD0 8746272</v>
+        <v>VP3 VD0 9901851</v>
       </c>
       <c r="AD50" t="str">
         <v>Small</v>
@@ -5196,85 +4596,73 @@
       <c r="AI50" t="str">
         <v>0506664422</v>
       </c>
-      <c r="AP50" t="str">
-        <v>rescheduled,e2m,try1</v>
-      </c>
-      <c r="AQ50" s="1">
-        <v>46058.60758616898</v>
-      </c>
     </row>
     <row r="51">
       <c r="A51">
-        <v>5413095</v>
+        <v>5414821</v>
       </c>
       <c r="D51" s="1">
-        <v>46057.841585532406</v>
+        <v>46065.336969351854</v>
       </c>
       <c r="E51" s="1">
-        <v>46058.4375</v>
+        <v>46065.583333333336</v>
       </c>
       <c r="F51" t="str">
         <v>Sdd</v>
       </c>
       <c r="G51" t="str">
-        <v>In route</v>
-      </c>
-      <c r="H51" s="1">
-        <v>46058.607915960645</v>
+        <v>Created</v>
       </c>
       <c r="K51" t="str">
         <v>ORN1</v>
       </c>
       <c r="L51">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N51" t="str">
-        <v>לוינסקי 73, תל אביב-יפו, ישראל</v>
+        <v>שמעון בן צבי 4, גבעתיים, ישראל</v>
       </c>
       <c r="O51" t="str">
+        <v>גבעתיים</v>
+      </c>
+      <c r="P51" t="str">
+        <v>14:00</v>
+      </c>
+      <c r="Q51" t="str">
+        <v>14:00-18:00</v>
+      </c>
+      <c r="R51" t="str">
+        <v>null</v>
+      </c>
+      <c r="S51" t="str">
+        <v>0504210094</v>
+      </c>
+      <c r="T51" t="str">
+        <v>בן יהודה 1, תל אביב-יפו, ישראל</v>
+      </c>
+      <c r="U51" t="str">
         <v>תל אביב-יפו</v>
       </c>
-      <c r="P51" t="str">
-        <v>10:30</v>
-      </c>
-      <c r="Q51" t="str">
-        <v>10:30-16:00</v>
-      </c>
-      <c r="R51" t="str">
-        <v>בס״ד טכניק</v>
-      </c>
-      <c r="S51" t="str">
-        <v>0504598159</v>
-      </c>
-      <c r="T51" t="str">
-        <v>משכית 15, הרצליה, ישראל</v>
-      </c>
-      <c r="U51" t="str">
-        <v>הרצליה</v>
-      </c>
       <c r="V51" t="str">
-        <v>10:30</v>
+        <v>14:00</v>
       </c>
       <c r="W51" t="str">
-        <v>10:30-16:00</v>
+        <v>14:00-18:00</v>
       </c>
       <c r="X51" t="str">
-        <v>שחר פלד</v>
+        <v>איליה אלישיב</v>
       </c>
       <c r="Y51" t="str">
-        <v>0507896940</v>
+        <v>0529582475</v>
       </c>
       <c r="AA51" t="str">
-        <v>Pack ID: GP2FBMZA2M</v>
-      </c>
-      <c r="AB51">
-        <v>716841</v>
+        <v>Pack ID: GPS2UU06N9</v>
       </c>
       <c r="AC51" t="str">
-        <v>VP3 VD1 2075482</v>
+        <v>VP3 VD1 6030906</v>
       </c>
       <c r="AD51" t="str">
-        <v>Medium</v>
+        <v>Envelope</v>
       </c>
       <c r="AE51" t="str">
         <v>Autotest</v>
@@ -5290,12 +4678,6 @@
       </c>
       <c r="AI51" t="str">
         <v>0506664422</v>
-      </c>
-      <c r="AP51" t="str">
-        <v>rescheduled,e2m,try1</v>
-      </c>
-      <c r="AQ51" s="1">
-        <v>46058.607915960645</v>
       </c>
     </row>
   </sheetData>
